--- a/cw21062021.xlsx
+++ b/cw21062021.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>Surname</t>
   </si>
@@ -37,237 +37,241 @@
     <t>CW</t>
   </si>
   <si>
-    <t>Chigiya</t>
+    <t>BASAREKUDYA</t>
   </si>
   <si>
     <t>ICS</t>
   </si>
   <si>
+    <t>H190825N</t>
+  </si>
+  <si>
+    <t>BUNYA</t>
+  </si>
+  <si>
+    <t>ISE</t>
+  </si>
+  <si>
+    <t>H190542R</t>
+  </si>
+  <si>
+    <t>CHANDIRINGA</t>
+  </si>
+  <si>
+    <t>H180187T</t>
+  </si>
+  <si>
+    <t>CHATIKOBO</t>
+  </si>
+  <si>
+    <t>H190305E</t>
+  </si>
+  <si>
+    <t>CHIGIYA</t>
+  </si>
+  <si>
     <t>H200577V</t>
   </si>
   <si>
-    <t>Chimanikire</t>
+    <t>CHIKOMO</t>
+  </si>
+  <si>
+    <t>H190842M</t>
+  </si>
+  <si>
+    <t>CHIMANIKIRE</t>
   </si>
   <si>
     <t>H200919N</t>
   </si>
   <si>
-    <t>Chinunga</t>
-  </si>
-  <si>
-    <t>H200244C</t>
-  </si>
-  <si>
-    <t>Dawood</t>
-  </si>
-  <si>
-    <t>H200108W</t>
-  </si>
-  <si>
-    <t>Dimbo</t>
-  </si>
-  <si>
-    <t>H200617G</t>
-  </si>
-  <si>
-    <t>Gomba</t>
+    <t>DUBE</t>
+  </si>
+  <si>
+    <t>H190215Z</t>
+  </si>
+  <si>
+    <t>GOMBA</t>
   </si>
   <si>
     <t>H200688G</t>
   </si>
   <si>
-    <t>Gudyanga</t>
+    <t>GUDYANGA</t>
   </si>
   <si>
     <t>H200491A</t>
   </si>
   <si>
-    <t>Gwiti</t>
-  </si>
-  <si>
-    <t>H200938Z</t>
-  </si>
-  <si>
-    <t>Hokonya</t>
-  </si>
-  <si>
-    <t>H200095F</t>
-  </si>
-  <si>
-    <t>Jani</t>
-  </si>
-  <si>
-    <t>H200502T</t>
-  </si>
-  <si>
-    <t>Machiya</t>
+    <t>KAMBUMBU</t>
+  </si>
+  <si>
+    <t>H190367P</t>
+  </si>
+  <si>
+    <t>KATSAMBA</t>
+  </si>
+  <si>
+    <t>H190124G</t>
+  </si>
+  <si>
+    <t>KAVHURU</t>
+  </si>
+  <si>
+    <t>H190167Q</t>
+  </si>
+  <si>
+    <t>LUNGA</t>
+  </si>
+  <si>
+    <t>H190688C</t>
+  </si>
+  <si>
+    <t>MACHIYA</t>
   </si>
   <si>
     <t>H200288W</t>
   </si>
   <si>
-    <t>Maditsha</t>
-  </si>
-  <si>
-    <t>H200294H</t>
-  </si>
-  <si>
-    <t>Maeka</t>
+    <t>MAEKA</t>
   </si>
   <si>
     <t>H200101X</t>
   </si>
   <si>
-    <t>Makumbe</t>
+    <t>MAKUMBE</t>
   </si>
   <si>
     <t>H200198B</t>
   </si>
   <si>
-    <t>Mangwaira</t>
+    <t>MANGWAIRA</t>
   </si>
   <si>
     <t>H200476V</t>
   </si>
   <si>
-    <t>Mapfaza</t>
+    <t>MAPFAZA</t>
   </si>
   <si>
     <t>H200864N</t>
   </si>
   <si>
-    <t>Maphuya</t>
-  </si>
-  <si>
-    <t>H200909Z</t>
-  </si>
-  <si>
-    <t>Maposa</t>
+    <t>MAPOSA</t>
   </si>
   <si>
     <t>H200300V</t>
   </si>
   <si>
-    <t xml:space="preserve">Mashamba </t>
+    <t>MASHAMBA</t>
   </si>
   <si>
     <t>H200137J</t>
   </si>
   <si>
-    <t>Masike</t>
-  </si>
-  <si>
-    <t>H200648F</t>
-  </si>
-  <si>
-    <t>Matoi</t>
+    <t>MATOI</t>
   </si>
   <si>
     <t>H200230B</t>
   </si>
   <si>
-    <t xml:space="preserve">Mphepo </t>
+    <t>MHASVI</t>
+  </si>
+  <si>
+    <t>H190499W</t>
+  </si>
+  <si>
+    <t>MPHEPO</t>
   </si>
   <si>
     <t>H200072E</t>
   </si>
   <si>
-    <t>Mubaiwa</t>
+    <t>MUBAIWA</t>
   </si>
   <si>
     <t>H200438Y</t>
   </si>
   <si>
-    <t>Muguti</t>
-  </si>
-  <si>
-    <t>H200878V</t>
-  </si>
-  <si>
-    <t>Murombedzi</t>
+    <t>MUGUTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H200878V </t>
+  </si>
+  <si>
+    <t>MUROMBEDZI</t>
   </si>
   <si>
     <t>H200048G</t>
   </si>
   <si>
-    <t>Musikiri</t>
+    <t>MUSIKIRI</t>
   </si>
   <si>
     <t>H200555W</t>
   </si>
   <si>
-    <t>Mutasa</t>
+    <t>MUTASA</t>
   </si>
   <si>
     <t>H200325W</t>
   </si>
   <si>
-    <t>Mutenga</t>
-  </si>
-  <si>
-    <t>H200349G</t>
-  </si>
-  <si>
-    <t>Ndiripo</t>
-  </si>
-  <si>
-    <t>H200039Z</t>
-  </si>
-  <si>
-    <t>Ndoro</t>
-  </si>
-  <si>
-    <t>H200497G</t>
-  </si>
-  <si>
-    <t>Ngoni</t>
+    <t>NGONI</t>
   </si>
   <si>
     <t>H200348G</t>
   </si>
   <si>
-    <t>Njanjeni</t>
+    <t>NGWIRA</t>
+  </si>
+  <si>
+    <t>H190819A</t>
+  </si>
+  <si>
+    <t>NJANJENI</t>
   </si>
   <si>
     <t>H200576J</t>
   </si>
   <si>
-    <t>Njobela</t>
-  </si>
-  <si>
-    <t>H200398G</t>
-  </si>
-  <si>
-    <t>Rwizi</t>
+    <t>PUNDO</t>
+  </si>
+  <si>
+    <t>H190240N</t>
+  </si>
+  <si>
+    <t>RWIZI</t>
   </si>
   <si>
     <t>H200071N</t>
   </si>
   <si>
-    <t>Saunyama</t>
-  </si>
-  <si>
-    <t>H190782H</t>
-  </si>
-  <si>
-    <t>Shambare</t>
-  </si>
-  <si>
-    <t>H200987Z</t>
-  </si>
-  <si>
-    <t>Valea</t>
-  </si>
-  <si>
-    <t>H200045W</t>
+    <t>SAMBANA</t>
+  </si>
+  <si>
+    <t>H1314280G</t>
+  </si>
+  <si>
+    <t>VUNGANAI</t>
+  </si>
+  <si>
+    <t>H190094Z</t>
+  </si>
+  <si>
+    <t>WUTAUNASHE</t>
+  </si>
+  <si>
+    <t>H190811H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -378,8 +382,8 @@
     <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="59" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -387,8 +391,8 @@
     <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="59" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1513,13 +1517,15 @@
       <c r="A2" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="B2" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s" s="4">
+      <c r="B2" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="4">
+        <v>0.877551020408163</v>
+      </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1529,13 +1535,15 @@
       <c r="A3" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s" s="7">
+      <c r="B3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="C3" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.530612244897959</v>
+      </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -1543,15 +1551,17 @@
     </row>
     <row r="4" ht="22.35" customHeight="1">
       <c r="A4" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="B4" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.244897959183673</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1559,15 +1569,17 @@
     </row>
     <row r="5" ht="22.35" customHeight="1">
       <c r="A5" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="B5" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -1575,15 +1587,17 @@
     </row>
     <row r="6" ht="22.35" customHeight="1">
       <c r="A6" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="B6" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.877551020408163</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -1591,15 +1605,17 @@
     </row>
     <row r="7" ht="22.35" customHeight="1">
       <c r="A7" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="B7" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.673469387755102</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -1607,15 +1623,17 @@
     </row>
     <row r="8" ht="22.35" customHeight="1">
       <c r="A8" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="B8" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.530612244897959</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -1623,15 +1641,17 @@
     </row>
     <row r="9" ht="22.35" customHeight="1">
       <c r="A9" t="s" s="6">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="B9" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.816326530612245</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -1639,15 +1659,17 @@
     </row>
     <row r="10" ht="22.35" customHeight="1">
       <c r="A10" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="B10" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.877551020408163</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -1655,15 +1677,17 @@
     </row>
     <row r="11" ht="22.35" customHeight="1">
       <c r="A11" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="B11" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s" s="6">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.877551020408163</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -1671,15 +1695,17 @@
     </row>
     <row r="12" ht="22.35" customHeight="1">
       <c r="A12" t="s" s="6">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="B12" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.877551020408163</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1687,15 +1713,17 @@
     </row>
     <row r="13" ht="22.35" customHeight="1">
       <c r="A13" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s" s="7">
         <v>32</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="B13" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s" s="6">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.775510204081633</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -1703,15 +1731,17 @@
     </row>
     <row r="14" ht="22.35" customHeight="1">
       <c r="A14" t="s" s="6">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="B14" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s" s="6">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.877551020408163</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1719,15 +1749,17 @@
     </row>
     <row r="15" ht="22.35" customHeight="1">
       <c r="A15" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s" s="7">
         <v>36</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="B15" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1735,15 +1767,17 @@
     </row>
     <row r="16" ht="22.35" customHeight="1">
       <c r="A16" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="B16" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s" s="6">
+        <v>39</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.755102040816327</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -1751,15 +1785,17 @@
     </row>
     <row r="17" ht="22.35" customHeight="1">
       <c r="A17" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s" s="7">
         <v>40</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="B17" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s" s="6">
+        <v>41</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.918367346938776</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1767,15 +1803,17 @@
     </row>
     <row r="18" ht="22.35" customHeight="1">
       <c r="A18" t="s" s="6">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s" s="7">
         <v>42</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="B18" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.653061224489796</v>
+      </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -1783,15 +1821,17 @@
     </row>
     <row r="19" ht="22.35" customHeight="1">
       <c r="A19" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s" s="7">
         <v>44</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="B19" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.755102040816327</v>
+      </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1799,15 +1839,17 @@
     </row>
     <row r="20" ht="22.35" customHeight="1">
       <c r="A20" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s" s="7">
         <v>46</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="B20" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.510204081632653</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -1815,15 +1857,17 @@
     </row>
     <row r="21" ht="22.35" customHeight="1">
       <c r="A21" t="s" s="6">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s" s="7">
         <v>48</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="B21" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.816326530612245</v>
+      </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -1831,15 +1875,17 @@
     </row>
     <row r="22" ht="22.35" customHeight="1">
       <c r="A22" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="B22" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s" s="7">
         <v>50</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="B22" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s" s="6">
+        <v>51</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.877551020408163</v>
+      </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -1847,15 +1893,17 @@
     </row>
     <row r="23" ht="22.35" customHeight="1">
       <c r="A23" t="s" s="6">
-        <v>51</v>
-      </c>
-      <c r="B23" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="B23" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s" s="6">
+        <v>53</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.877551020408163</v>
+      </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -1863,15 +1911,17 @@
     </row>
     <row r="24" ht="22.35" customHeight="1">
       <c r="A24" t="s" s="6">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s" s="7">
         <v>54</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="B24" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s" s="6">
+        <v>55</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.877551020408163</v>
+      </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -1879,15 +1929,17 @@
     </row>
     <row r="25" ht="22.35" customHeight="1">
       <c r="A25" t="s" s="6">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s" s="7">
         <v>56</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="B25" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.918367346938776</v>
+      </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -1895,15 +1947,17 @@
     </row>
     <row r="26" ht="22.35" customHeight="1">
       <c r="A26" t="s" s="6">
-        <v>57</v>
-      </c>
-      <c r="B26" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="B26" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s" s="6">
+        <v>59</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.877551020408163</v>
+      </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -1911,15 +1965,17 @@
     </row>
     <row r="27" ht="22.35" customHeight="1">
       <c r="A27" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="B27" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s" s="7">
         <v>60</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="B27" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s" s="6">
+        <v>61</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -1927,15 +1983,17 @@
     </row>
     <row r="28" ht="22.35" customHeight="1">
       <c r="A28" t="s" s="6">
-        <v>61</v>
-      </c>
-      <c r="B28" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s" s="7">
         <v>62</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="B28" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s" s="6">
+        <v>63</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.877551020408163</v>
+      </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -1943,15 +2001,17 @@
     </row>
     <row r="29" ht="22.35" customHeight="1">
       <c r="A29" t="s" s="6">
-        <v>63</v>
-      </c>
-      <c r="B29" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s" s="7">
         <v>64</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="B29" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s" s="6">
+        <v>65</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.755102040816327</v>
+      </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -1959,15 +2019,17 @@
     </row>
     <row r="30" ht="22.35" customHeight="1">
       <c r="A30" t="s" s="6">
-        <v>65</v>
-      </c>
-      <c r="B30" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s" s="7">
         <v>66</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="B30" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s" s="6">
+        <v>67</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.877551020408163</v>
+      </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -1975,15 +2037,17 @@
     </row>
     <row r="31" ht="22.35" customHeight="1">
       <c r="A31" t="s" s="6">
-        <v>67</v>
-      </c>
-      <c r="B31" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s" s="7">
         <v>68</v>
       </c>
-      <c r="D31" s="8"/>
+      <c r="B31" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s" s="6">
+        <v>69</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.877551020408163</v>
+      </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -1991,15 +2055,17 @@
     </row>
     <row r="32" ht="22.35" customHeight="1">
       <c r="A32" t="s" s="6">
-        <v>69</v>
-      </c>
-      <c r="B32" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s" s="7">
         <v>70</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="B32" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s" s="6">
+        <v>71</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.510204081632653</v>
+      </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -2007,15 +2073,17 @@
     </row>
     <row r="33" ht="22.35" customHeight="1">
       <c r="A33" t="s" s="6">
-        <v>71</v>
-      </c>
-      <c r="B33" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s" s="7">
         <v>72</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="B33" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s" s="6">
+        <v>73</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.877551020408163</v>
+      </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -2023,15 +2091,17 @@
     </row>
     <row r="34" ht="22.35" customHeight="1">
       <c r="A34" t="s" s="6">
-        <v>73</v>
-      </c>
-      <c r="B34" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s" s="7">
         <v>74</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="B34" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s" s="6">
+        <v>75</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.877551020408163</v>
+      </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -2039,15 +2109,17 @@
     </row>
     <row r="35" ht="22.35" customHeight="1">
       <c r="A35" t="s" s="6">
-        <v>75</v>
-      </c>
-      <c r="B35" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s" s="7">
         <v>76</v>
       </c>
-      <c r="D35" s="8"/>
+      <c r="B35" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s" s="6">
+        <v>77</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -2055,15 +2127,17 @@
     </row>
     <row r="36" ht="22.35" customHeight="1">
       <c r="A36" t="s" s="6">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s" s="7">
         <v>78</v>
       </c>
-      <c r="D36" s="8"/>
+      <c r="B36" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.0612244897959184</v>
+      </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -2071,15 +2145,17 @@
     </row>
     <row r="37" ht="22.35" customHeight="1">
       <c r="A37" t="s" s="6">
-        <v>79</v>
-      </c>
-      <c r="B37" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s" s="7">
         <v>80</v>
       </c>
-      <c r="D37" s="8"/>
+      <c r="B37" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s" s="6">
+        <v>81</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.551020408163265</v>
+      </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -2087,15 +2163,17 @@
     </row>
     <row r="38" ht="22.35" customHeight="1">
       <c r="A38" t="s" s="6">
-        <v>81</v>
-      </c>
-      <c r="B38" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="D38" s="8"/>
+      <c r="B38" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s" s="6">
+        <v>83</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.755102040816327</v>
+      </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>

--- a/cw21062021.xlsx
+++ b/cw21062021.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
   <si>
     <t>Surname</t>
   </si>
@@ -79,18 +79,60 @@
     <t>H190842M</t>
   </si>
   <si>
+    <t>CHIKONO</t>
+  </si>
+  <si>
+    <t>H190194H</t>
+  </si>
+  <si>
     <t>CHIMANIKIRE</t>
   </si>
   <si>
     <t>H200919N</t>
   </si>
   <si>
+    <t>CHINUNGA</t>
+  </si>
+  <si>
+    <t>H200244C</t>
+  </si>
+  <si>
+    <t>CHITSIKO</t>
+  </si>
+  <si>
+    <t>H180349W</t>
+  </si>
+  <si>
+    <t>DAWOOD</t>
+  </si>
+  <si>
+    <t>H200108W</t>
+  </si>
+  <si>
+    <t>DIMBO</t>
+  </si>
+  <si>
+    <t>H200617G</t>
+  </si>
+  <si>
     <t>DUBE</t>
   </si>
   <si>
     <t>H190215Z</t>
   </si>
   <si>
+    <t>DZENGA</t>
+  </si>
+  <si>
+    <t>H190521X</t>
+  </si>
+  <si>
+    <t>GARWE</t>
+  </si>
+  <si>
+    <t>H180598Y</t>
+  </si>
+  <si>
     <t>GOMBA</t>
   </si>
   <si>
@@ -103,6 +145,24 @@
     <t>H200491A</t>
   </si>
   <si>
+    <t>GWITI</t>
+  </si>
+  <si>
+    <t>H200938Z</t>
+  </si>
+  <si>
+    <t>HOKONYA</t>
+  </si>
+  <si>
+    <t>H200095F</t>
+  </si>
+  <si>
+    <t>JANI</t>
+  </si>
+  <si>
+    <t>H200502T</t>
+  </si>
+  <si>
     <t>KAMBUMBU</t>
   </si>
   <si>
@@ -157,6 +217,12 @@
     <t>H200864N</t>
   </si>
   <si>
+    <t>MAPHUYA</t>
+  </si>
+  <si>
+    <t>H200909Z</t>
+  </si>
+  <si>
     <t>MAPOSA</t>
   </si>
   <si>
@@ -169,6 +235,12 @@
     <t>H200137J</t>
   </si>
   <si>
+    <t>MASIKE</t>
+  </si>
+  <si>
+    <t>H200648f</t>
+  </si>
+  <si>
     <t>MATOI</t>
   </si>
   <si>
@@ -178,7 +250,13 @@
     <t>MHASVI</t>
   </si>
   <si>
-    <t>H190499W</t>
+    <t>H190499w</t>
+  </si>
+  <si>
+    <t>MOYO</t>
+  </si>
+  <si>
+    <t>H180124A</t>
   </si>
   <si>
     <t>MPHEPO</t>
@@ -187,12 +265,21 @@
     <t>H200072E</t>
   </si>
   <si>
+    <t>MTETWA</t>
+  </si>
+  <si>
+    <t>H190504V</t>
+  </si>
+  <si>
     <t>MUBAIWA</t>
   </si>
   <si>
     <t>H200438Y</t>
   </si>
   <si>
+    <t>H190156J</t>
+  </si>
+  <si>
     <t>MUGUTI</t>
   </si>
   <si>
@@ -217,6 +304,24 @@
     <t>H200325W</t>
   </si>
   <si>
+    <t>MUTENGA</t>
+  </si>
+  <si>
+    <t>H200349G</t>
+  </si>
+  <si>
+    <t>NDIRIPO</t>
+  </si>
+  <si>
+    <t>H200039Z</t>
+  </si>
+  <si>
+    <t>NDORO</t>
+  </si>
+  <si>
+    <t>H200497G</t>
+  </si>
+  <si>
     <t>NGONI</t>
   </si>
   <si>
@@ -235,6 +340,12 @@
     <t>H200576J</t>
   </si>
   <si>
+    <t>NYAMAYEDENGA</t>
+  </si>
+  <si>
+    <t>H190235H</t>
+  </si>
+  <si>
     <t>PUNDO</t>
   </si>
   <si>
@@ -244,7 +355,7 @@
     <t>RWIZI</t>
   </si>
   <si>
-    <t>H200071N</t>
+    <t>H200071n</t>
   </si>
   <si>
     <t>SAMBANA</t>
@@ -253,10 +364,22 @@
     <t>H1314280G</t>
   </si>
   <si>
+    <t xml:space="preserve">SHAMBARE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H200897Z </t>
+  </si>
+  <si>
+    <t>VALEA</t>
+  </si>
+  <si>
+    <t>H200045W</t>
+  </si>
+  <si>
     <t>VUNGANAI</t>
   </si>
   <si>
-    <t>H190094Z</t>
+    <t>H190094z</t>
   </si>
   <si>
     <t>WUTAUNASHE</t>
@@ -286,9 +409,9 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Georgia"/>
     </font>
     <font>
       <sz val="12"/>
@@ -385,7 +508,7 @@
     <xf numFmtId="59" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -394,7 +517,7 @@
     <xf numFmtId="59" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1475,7 +1598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1483,11 +1606,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="8" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.9453" style="1" customWidth="1"/>
+    <col min="2" max="8" width="16.3516" style="1" customWidth="1"/>
     <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
+    <row r="1" ht="22.55" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1632,7 +1756,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="7">
-        <v>0.530612244897959</v>
+        <v>0.612244897959184</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -1644,13 +1768,13 @@
         <v>24</v>
       </c>
       <c r="B9" t="s" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s" s="6">
         <v>25</v>
       </c>
       <c r="D9" s="7">
-        <v>0.816326530612245</v>
+        <v>0.530612244897959</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -1668,7 +1792,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>0.877551020408163</v>
+        <v>0.591836734693878</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1680,13 +1804,13 @@
         <v>28</v>
       </c>
       <c r="B11" t="s" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s" s="6">
         <v>29</v>
       </c>
       <c r="D11" s="7">
-        <v>0.877551020408163</v>
+        <v>1</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1698,13 +1822,13 @@
         <v>30</v>
       </c>
       <c r="B12" t="s" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s" s="6">
         <v>31</v>
       </c>
       <c r="D12" s="7">
-        <v>0.877551020408163</v>
+        <v>0.8979591836734691</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1716,13 +1840,13 @@
         <v>32</v>
       </c>
       <c r="B13" t="s" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s" s="6">
         <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>0.775510204081633</v>
+        <v>0.918367346938776</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -1734,13 +1858,13 @@
         <v>34</v>
       </c>
       <c r="B14" t="s" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D14" s="7">
-        <v>0.877551020408163</v>
+        <v>0.816326530612245</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1752,13 +1876,13 @@
         <v>36</v>
       </c>
       <c r="B15" t="s" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s" s="6">
         <v>37</v>
       </c>
       <c r="D15" s="7">
-        <v>0.571428571428571</v>
+        <v>0.755102040816327</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -1770,7 +1894,7 @@
         <v>38</v>
       </c>
       <c r="B16" t="s" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s" s="6">
         <v>39</v>
@@ -1794,7 +1918,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="7">
-        <v>0.918367346938776</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1812,7 +1936,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="7">
-        <v>0.653061224489796</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1830,7 +1954,7 @@
         <v>45</v>
       </c>
       <c r="D19" s="7">
-        <v>0.755102040816327</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1848,7 +1972,7 @@
         <v>47</v>
       </c>
       <c r="D20" s="7">
-        <v>0.510204081632653</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -1866,7 +1990,7 @@
         <v>49</v>
       </c>
       <c r="D21" s="7">
-        <v>0.816326530612245</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -1878,7 +2002,7 @@
         <v>50</v>
       </c>
       <c r="B22" t="s" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s" s="6">
         <v>51</v>
@@ -1896,13 +2020,13 @@
         <v>52</v>
       </c>
       <c r="B23" t="s" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s" s="6">
         <v>53</v>
       </c>
       <c r="D23" s="7">
-        <v>0.877551020408163</v>
+        <v>0.775510204081633</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -1938,7 +2062,7 @@
         <v>57</v>
       </c>
       <c r="D25" s="7">
-        <v>0.918367346938776</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -1956,7 +2080,7 @@
         <v>59</v>
       </c>
       <c r="D26" s="7">
-        <v>0.877551020408163</v>
+        <v>0.755102040816327</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -1974,7 +2098,7 @@
         <v>61</v>
       </c>
       <c r="D27" s="7">
-        <v>1</v>
+        <v>0.918367346938776</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -1992,7 +2116,7 @@
         <v>63</v>
       </c>
       <c r="D28" s="7">
-        <v>0.877551020408163</v>
+        <v>0.653061224489796</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -2028,7 +2152,7 @@
         <v>67</v>
       </c>
       <c r="D30" s="7">
-        <v>0.877551020408163</v>
+        <v>0.510204081632653</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -2046,7 +2170,7 @@
         <v>69</v>
       </c>
       <c r="D31" s="7">
-        <v>0.877551020408163</v>
+        <v>0.795918367346939</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -2064,7 +2188,7 @@
         <v>71</v>
       </c>
       <c r="D32" s="7">
-        <v>0.510204081632653</v>
+        <v>0.816326530612245</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -2094,7 +2218,7 @@
         <v>74</v>
       </c>
       <c r="B34" t="s" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s" s="6">
         <v>75</v>
@@ -2118,7 +2242,7 @@
         <v>77</v>
       </c>
       <c r="D35" s="7">
-        <v>1</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -2136,7 +2260,7 @@
         <v>79</v>
       </c>
       <c r="D36" s="7">
-        <v>0.0612244897959184</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -2148,13 +2272,13 @@
         <v>80</v>
       </c>
       <c r="B37" t="s" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s" s="6">
         <v>81</v>
       </c>
       <c r="D37" s="7">
-        <v>0.551020408163265</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -2172,12 +2296,390 @@
         <v>83</v>
       </c>
       <c r="D38" s="7">
-        <v>0.755102040816327</v>
+        <v>0.918367346938776</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
+    </row>
+    <row r="39" ht="22.35" customHeight="1">
+      <c r="A39" t="s" s="6">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s" s="6">
+        <v>85</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0.673469387755102</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" ht="22.35" customHeight="1">
+      <c r="A40" t="s" s="6">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s" s="6">
+        <v>87</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.877551020408163</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" ht="22.35" customHeight="1">
+      <c r="A41" t="s" s="6">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s" s="6">
+        <v>88</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.612244897959184</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" ht="22.35" customHeight="1">
+      <c r="A42" t="s" s="6">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s" s="6">
+        <v>90</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" ht="22.35" customHeight="1">
+      <c r="A43" t="s" s="6">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s" s="6">
+        <v>92</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0.877551020408163</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" ht="22.35" customHeight="1">
+      <c r="A44" t="s" s="6">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s" s="6">
+        <v>94</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.755102040816327</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" ht="22.35" customHeight="1">
+      <c r="A45" t="s" s="6">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s" s="6">
+        <v>96</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0.877551020408163</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" ht="22.35" customHeight="1">
+      <c r="A46" t="s" s="6">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s" s="6">
+        <v>98</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0.938775510204082</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" ht="22.35" customHeight="1">
+      <c r="A47" t="s" s="6">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s" s="6">
+        <v>100</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0.755102040816327</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" ht="22.35" customHeight="1">
+      <c r="A48" t="s" s="6">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s" s="6">
+        <v>102</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0.653061224489796</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" ht="22.35" customHeight="1">
+      <c r="A49" t="s" s="6">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s" s="6">
+        <v>104</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0.877551020408163</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" ht="22.35" customHeight="1">
+      <c r="A50" t="s" s="6">
+        <v>105</v>
+      </c>
+      <c r="B50" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s" s="6">
+        <v>106</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0.510204081632653</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" ht="22.35" customHeight="1">
+      <c r="A51" t="s" s="6">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s" s="6">
+        <v>108</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0.877551020408163</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" ht="22.35" customHeight="1">
+      <c r="A52" t="s" s="6">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s" s="6">
+        <v>110</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.877551020408163</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" ht="22.35" customHeight="1">
+      <c r="A53" t="s" s="6">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s" s="6">
+        <v>112</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.877551020408163</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" ht="22.35" customHeight="1">
+      <c r="A54" t="s" s="6">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s" s="6">
+        <v>114</v>
+      </c>
+      <c r="D54" s="7">
+        <v>1</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" ht="22.35" customHeight="1">
+      <c r="A55" t="s" s="6">
+        <v>115</v>
+      </c>
+      <c r="B55" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s" s="6">
+        <v>116</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0.0612244897959184</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" ht="22.35" customHeight="1">
+      <c r="A56" t="s" s="6">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s" s="6">
+        <v>118</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" ht="22.35" customHeight="1">
+      <c r="A57" t="s" s="6">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s" s="6">
+        <v>120</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0.877551020408163</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" ht="22.35" customHeight="1">
+      <c r="A58" t="s" s="6">
+        <v>121</v>
+      </c>
+      <c r="B58" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s" s="6">
+        <v>122</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0.551020408163265</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" ht="22.35" customHeight="1">
+      <c r="A59" t="s" s="6">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s" s="6">
+        <v>124</v>
+      </c>
+      <c r="D59" s="7">
+        <v>0.755102040816327</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/cw21062021.xlsx
+++ b/cw21062021.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
   <si>
     <t>Surname</t>
   </si>
@@ -229,6 +229,12 @@
     <t>H200300V</t>
   </si>
   <si>
+    <t>MARISETA</t>
+  </si>
+  <si>
+    <t>H180542A</t>
+  </si>
+  <si>
     <t>MASHAMBA</t>
   </si>
   <si>
@@ -386,6 +392,9 @@
   </si>
   <si>
     <t>H190811H</t>
+  </si>
+  <si>
+    <t>H180291G</t>
   </si>
 </sst>
 </file>
@@ -492,7 +501,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -508,6 +517,9 @@
     <xf numFmtId="59" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -515,6 +527,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1598,7 +1613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1651,1035 +1666,1101 @@
         <v>0.877551020408163</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" ht="22.35" customHeight="1">
-      <c r="A3" t="s" s="6">
+      <c r="A3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>0.530612244897959</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="A4" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s" s="6">
+      <c r="B4" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>0.244897959183673</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="A5" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" t="s" s="6">
+      <c r="A6" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="B6" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s" s="6">
+      <c r="B6" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="E6" s="9">
+        <v>0.852941176470588</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" t="s" s="6">
+      <c r="A7" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="B7" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s" s="6">
+      <c r="B7" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>0.673469387755102</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" ht="22.35" customHeight="1">
-      <c r="A8" t="s" s="6">
+      <c r="A8" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="B8" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s" s="6">
+      <c r="B8" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>0.612244897959184</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="E8" s="9">
+        <v>0.970588235294118</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" ht="22.35" customHeight="1">
-      <c r="A9" t="s" s="6">
+      <c r="A9" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="B9" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s" s="6">
+      <c r="B9" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s" s="7">
         <v>25</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <v>0.530612244897959</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" ht="22.35" customHeight="1">
-      <c r="A10" t="s" s="6">
+      <c r="A10" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="B10" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s" s="6">
+      <c r="B10" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <v>0.591836734693878</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" ht="22.35" customHeight="1">
-      <c r="A11" t="s" s="6">
+      <c r="A11" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="B11" t="s" s="6">
+      <c r="B11" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C11" t="s" s="6">
+      <c r="C11" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" ht="22.35" customHeight="1">
-      <c r="A12" t="s" s="6">
+      <c r="A12" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="B12" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s" s="6">
+      <c r="B12" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <v>0.8979591836734691</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" ht="22.35" customHeight="1">
-      <c r="A13" t="s" s="6">
+      <c r="A13" t="s" s="7">
         <v>32</v>
       </c>
-      <c r="B13" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s" s="6">
+      <c r="B13" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="8">
         <v>0.918367346938776</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="E13" s="9">
+        <v>0.617647058823529</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" ht="22.35" customHeight="1">
-      <c r="A14" t="s" s="6">
+      <c r="A14" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="B14" t="s" s="6">
+      <c r="B14" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C14" t="s" s="6">
+      <c r="C14" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="8">
         <v>0.816326530612245</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" ht="22.35" customHeight="1">
-      <c r="A15" t="s" s="6">
+      <c r="A15" t="s" s="7">
         <v>36</v>
       </c>
-      <c r="B15" t="s" s="6">
+      <c r="B15" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C15" t="s" s="6">
+      <c r="C15" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="8">
         <v>0.755102040816327</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" ht="22.35" customHeight="1">
-      <c r="A16" t="s" s="6">
+      <c r="A16" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="B16" t="s" s="6">
+      <c r="B16" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C16" t="s" s="6">
+      <c r="C16" t="s" s="7">
         <v>39</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="8">
         <v>0.755102040816327</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" ht="22.35" customHeight="1">
-      <c r="A17" t="s" s="6">
+      <c r="A17" t="s" s="7">
         <v>40</v>
       </c>
-      <c r="B17" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s" s="6">
+      <c r="B17" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s" s="7">
         <v>41</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" ht="22.35" customHeight="1">
-      <c r="A18" t="s" s="6">
+      <c r="A18" t="s" s="7">
         <v>42</v>
       </c>
-      <c r="B18" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s" s="6">
+      <c r="B18" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" ht="22.35" customHeight="1">
-      <c r="A19" t="s" s="6">
+      <c r="A19" t="s" s="7">
         <v>44</v>
       </c>
-      <c r="B19" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s" s="6">
+      <c r="B19" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s" s="7">
         <v>45</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" ht="22.35" customHeight="1">
-      <c r="A20" t="s" s="6">
+      <c r="A20" t="s" s="7">
         <v>46</v>
       </c>
-      <c r="B20" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s" s="6">
+      <c r="B20" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s" s="7">
         <v>47</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="E20" s="9">
+        <v>0.5588235294117651</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" ht="22.35" customHeight="1">
-      <c r="A21" t="s" s="6">
+      <c r="A21" t="s" s="7">
         <v>48</v>
       </c>
-      <c r="B21" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s" s="6">
+      <c r="B21" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s" s="7">
         <v>49</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="E21" s="9">
+        <v>0.470588235294118</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" ht="22.35" customHeight="1">
-      <c r="A22" t="s" s="6">
+      <c r="A22" t="s" s="7">
         <v>50</v>
       </c>
-      <c r="B22" t="s" s="6">
+      <c r="B22" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C22" t="s" s="6">
+      <c r="C22" t="s" s="7">
         <v>51</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="E22" s="9">
+        <v>0.470588235294118</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" ht="22.35" customHeight="1">
-      <c r="A23" t="s" s="6">
+      <c r="A23" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="B23" t="s" s="6">
+      <c r="B23" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C23" t="s" s="6">
+      <c r="C23" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="8">
         <v>0.775510204081633</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="E23" s="9">
+        <v>0.735294117647059</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" ht="22.35" customHeight="1">
-      <c r="A24" t="s" s="6">
+      <c r="A24" t="s" s="7">
         <v>54</v>
       </c>
-      <c r="B24" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s" s="6">
+      <c r="B24" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s" s="7">
         <v>55</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" ht="22.35" customHeight="1">
-      <c r="A25" t="s" s="6">
+      <c r="A25" t="s" s="7">
         <v>56</v>
       </c>
-      <c r="B25" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s" s="6">
+      <c r="B25" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s" s="7">
         <v>57</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="8">
         <v>0.571428571428571</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" ht="22.35" customHeight="1">
-      <c r="A26" t="s" s="6">
+      <c r="A26" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="B26" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s" s="6">
+      <c r="B26" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s" s="7">
         <v>59</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="8">
         <v>0.755102040816327</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" ht="22.35" customHeight="1">
-      <c r="A27" t="s" s="6">
+      <c r="A27" t="s" s="7">
         <v>60</v>
       </c>
-      <c r="B27" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s" s="6">
+      <c r="B27" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s" s="7">
         <v>61</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="8">
         <v>0.918367346938776</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" ht="22.35" customHeight="1">
-      <c r="A28" t="s" s="6">
+      <c r="A28" t="s" s="7">
         <v>62</v>
       </c>
-      <c r="B28" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s" s="6">
+      <c r="B28" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s" s="7">
         <v>63</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="8">
         <v>0.653061224489796</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="E28" s="9">
+        <v>0.441176470588235</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" ht="22.35" customHeight="1">
-      <c r="A29" t="s" s="6">
+      <c r="A29" t="s" s="7">
         <v>64</v>
       </c>
-      <c r="B29" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s" s="6">
+      <c r="B29" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s" s="7">
         <v>65</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="8">
         <v>0.755102040816327</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" ht="22.35" customHeight="1">
-      <c r="A30" t="s" s="6">
+      <c r="A30" t="s" s="7">
         <v>66</v>
       </c>
-      <c r="B30" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s" s="6">
+      <c r="B30" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s" s="7">
         <v>67</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="8">
         <v>0.510204081632653</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" ht="22.35" customHeight="1">
-      <c r="A31" t="s" s="6">
+      <c r="A31" t="s" s="7">
         <v>68</v>
       </c>
-      <c r="B31" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s" s="6">
+      <c r="B31" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s" s="7">
         <v>69</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="8">
         <v>0.795918367346939</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="E31" s="9">
+        <v>0.382352941176471</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" ht="22.35" customHeight="1">
-      <c r="A32" t="s" s="6">
+      <c r="A32" t="s" s="7">
         <v>70</v>
       </c>
-      <c r="B32" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s" s="6">
+      <c r="B32" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s" s="7">
         <v>71</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="8">
         <v>0.816326530612245</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" ht="22.35" customHeight="1">
-      <c r="A33" t="s" s="6">
+      <c r="A33" t="s" s="7">
         <v>72</v>
       </c>
-      <c r="B33" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s" s="6">
+      <c r="B33" s="10"/>
+      <c r="C33" t="s" s="7">
         <v>73</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.323529411764706</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" ht="22.35" customHeight="1">
+      <c r="A34" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s" s="7">
+        <v>75</v>
+      </c>
+      <c r="D34" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" ht="22.35" customHeight="1">
-      <c r="A34" t="s" s="6">
-        <v>74</v>
-      </c>
-      <c r="B34" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s" s="6">
-        <v>75</v>
-      </c>
-      <c r="D34" s="7">
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" ht="22.35" customHeight="1">
+      <c r="A35" t="s" s="7">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s" s="7">
+        <v>77</v>
+      </c>
+      <c r="D35" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" ht="22.35" customHeight="1">
-      <c r="A35" t="s" s="6">
-        <v>76</v>
-      </c>
-      <c r="B35" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s" s="6">
-        <v>77</v>
-      </c>
-      <c r="D35" s="7">
+      <c r="E35" s="9"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" ht="22.35" customHeight="1">
+      <c r="A36" t="s" s="7">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s" s="7">
+        <v>79</v>
+      </c>
+      <c r="D36" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" ht="22.35" customHeight="1">
-      <c r="A36" t="s" s="6">
-        <v>78</v>
-      </c>
-      <c r="B36" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s" s="6">
-        <v>79</v>
-      </c>
-      <c r="D36" s="7">
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" ht="22.35" customHeight="1">
+      <c r="A37" t="s" s="7">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s" s="7">
+        <v>81</v>
+      </c>
+      <c r="D37" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" ht="22.35" customHeight="1">
-      <c r="A37" t="s" s="6">
-        <v>80</v>
-      </c>
-      <c r="B37" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s" s="6">
-        <v>81</v>
-      </c>
-      <c r="D37" s="7">
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" ht="22.35" customHeight="1">
+      <c r="A38" t="s" s="7">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="D38" s="8">
         <v>0.571428571428571</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" ht="22.35" customHeight="1">
-      <c r="A38" t="s" s="6">
-        <v>82</v>
-      </c>
-      <c r="B38" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s" s="6">
-        <v>83</v>
-      </c>
-      <c r="D38" s="7">
+      <c r="E38" s="9">
+        <v>0.411764705882353</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" ht="22.35" customHeight="1">
+      <c r="A39" t="s" s="7">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s" s="7">
+        <v>85</v>
+      </c>
+      <c r="D39" s="8">
         <v>0.918367346938776</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" ht="22.35" customHeight="1">
-      <c r="A39" t="s" s="6">
-        <v>84</v>
-      </c>
-      <c r="B39" t="s" s="6">
+      <c r="E39" s="9">
+        <v>0.735294117647059</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" ht="22.35" customHeight="1">
+      <c r="A40" t="s" s="7">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C39" t="s" s="6">
-        <v>85</v>
-      </c>
-      <c r="D39" s="7">
+      <c r="C40" t="s" s="7">
+        <v>87</v>
+      </c>
+      <c r="D40" s="8">
         <v>0.673469387755102</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" ht="22.35" customHeight="1">
-      <c r="A40" t="s" s="6">
-        <v>86</v>
-      </c>
-      <c r="B40" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s" s="6">
-        <v>87</v>
-      </c>
-      <c r="D40" s="7">
+      <c r="E40" s="9">
+        <v>0.5588235294117651</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" ht="22.35" customHeight="1">
+      <c r="A41" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="D41" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" ht="22.35" customHeight="1">
-      <c r="A41" t="s" s="6">
-        <v>86</v>
-      </c>
-      <c r="B41" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s" s="6">
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" ht="22.35" customHeight="1">
+      <c r="A42" t="s" s="7">
         <v>88</v>
       </c>
-      <c r="D41" s="7">
+      <c r="B42" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="D42" s="8">
         <v>0.612244897959184</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" ht="22.35" customHeight="1">
-      <c r="A42" t="s" s="6">
-        <v>89</v>
-      </c>
-      <c r="B42" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s" s="6">
-        <v>90</v>
-      </c>
-      <c r="D42" s="7">
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" ht="22.35" customHeight="1">
+      <c r="A43" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s" s="7">
+        <v>92</v>
+      </c>
+      <c r="D43" s="8">
         <v>1</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" ht="22.35" customHeight="1">
-      <c r="A43" t="s" s="6">
-        <v>91</v>
-      </c>
-      <c r="B43" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C43" t="s" s="6">
-        <v>92</v>
-      </c>
-      <c r="D43" s="7">
+      <c r="E43" s="9"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" ht="22.35" customHeight="1">
+      <c r="A44" t="s" s="7">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s" s="7">
+        <v>94</v>
+      </c>
+      <c r="D44" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" ht="22.35" customHeight="1">
-      <c r="A44" t="s" s="6">
-        <v>93</v>
-      </c>
-      <c r="B44" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s" s="6">
-        <v>94</v>
-      </c>
-      <c r="D44" s="7">
+      <c r="E44" s="9"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" ht="22.35" customHeight="1">
+      <c r="A45" t="s" s="7">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="D45" s="8">
         <v>0.755102040816327</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" ht="22.35" customHeight="1">
-      <c r="A45" t="s" s="6">
-        <v>95</v>
-      </c>
-      <c r="B45" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C45" t="s" s="6">
-        <v>96</v>
-      </c>
-      <c r="D45" s="7">
+      <c r="E45" s="9">
+        <v>0.617647058823529</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" ht="22.35" customHeight="1">
+      <c r="A46" t="s" s="7">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s" s="7">
+        <v>98</v>
+      </c>
+      <c r="D46" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" ht="22.35" customHeight="1">
-      <c r="A46" t="s" s="6">
-        <v>97</v>
-      </c>
-      <c r="B46" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C46" t="s" s="6">
-        <v>98</v>
-      </c>
-      <c r="D46" s="7">
+      <c r="E46" s="9"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" ht="22.35" customHeight="1">
+      <c r="A47" t="s" s="7">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s" s="7">
+        <v>100</v>
+      </c>
+      <c r="D47" s="8">
         <v>0.938775510204082</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" ht="22.35" customHeight="1">
-      <c r="A47" t="s" s="6">
-        <v>99</v>
-      </c>
-      <c r="B47" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C47" t="s" s="6">
-        <v>100</v>
-      </c>
-      <c r="D47" s="7">
+      <c r="E47" s="9"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" ht="22.35" customHeight="1">
+      <c r="A48" t="s" s="7">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s" s="7">
+        <v>102</v>
+      </c>
+      <c r="D48" s="8">
         <v>0.755102040816327</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" ht="22.35" customHeight="1">
-      <c r="A48" t="s" s="6">
-        <v>101</v>
-      </c>
-      <c r="B48" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C48" t="s" s="6">
-        <v>102</v>
-      </c>
-      <c r="D48" s="7">
+      <c r="E48" s="9">
+        <v>0.823529411764706</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" ht="22.35" customHeight="1">
+      <c r="A49" t="s" s="7">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s" s="7">
+        <v>104</v>
+      </c>
+      <c r="D49" s="8">
         <v>0.653061224489796</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" ht="22.35" customHeight="1">
-      <c r="A49" t="s" s="6">
-        <v>103</v>
-      </c>
-      <c r="B49" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C49" t="s" s="6">
-        <v>104</v>
-      </c>
-      <c r="D49" s="7">
+      <c r="E49" s="9"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" ht="22.35" customHeight="1">
+      <c r="A50" t="s" s="7">
+        <v>105</v>
+      </c>
+      <c r="B50" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s" s="7">
+        <v>106</v>
+      </c>
+      <c r="D50" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" ht="22.35" customHeight="1">
-      <c r="A50" t="s" s="6">
-        <v>105</v>
-      </c>
-      <c r="B50" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s" s="6">
-        <v>106</v>
-      </c>
-      <c r="D50" s="7">
+      <c r="E50" s="9"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" ht="22.35" customHeight="1">
+      <c r="A51" t="s" s="7">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s" s="7">
+        <v>108</v>
+      </c>
+      <c r="D51" s="8">
         <v>0.510204081632653</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" ht="22.35" customHeight="1">
-      <c r="A51" t="s" s="6">
-        <v>107</v>
-      </c>
-      <c r="B51" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C51" t="s" s="6">
-        <v>108</v>
-      </c>
-      <c r="D51" s="7">
+      <c r="E51" s="9"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" ht="22.35" customHeight="1">
+      <c r="A52" t="s" s="7">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s" s="7">
+        <v>110</v>
+      </c>
+      <c r="D52" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" ht="22.35" customHeight="1">
-      <c r="A52" t="s" s="6">
-        <v>109</v>
-      </c>
-      <c r="B52" t="s" s="6">
+      <c r="E52" s="9"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" ht="22.35" customHeight="1">
+      <c r="A53" t="s" s="7">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C52" t="s" s="6">
-        <v>110</v>
-      </c>
-      <c r="D52" s="7">
+      <c r="C53" t="s" s="7">
+        <v>112</v>
+      </c>
+      <c r="D53" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" ht="22.35" customHeight="1">
-      <c r="A53" t="s" s="6">
-        <v>111</v>
-      </c>
-      <c r="B53" t="s" s="6">
+      <c r="E53" s="9">
+        <v>0.882352941176471</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" ht="22.35" customHeight="1">
+      <c r="A54" t="s" s="7">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C53" t="s" s="6">
-        <v>112</v>
-      </c>
-      <c r="D53" s="7">
+      <c r="C54" t="s" s="7">
+        <v>114</v>
+      </c>
+      <c r="D54" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" ht="22.35" customHeight="1">
-      <c r="A54" t="s" s="6">
-        <v>113</v>
-      </c>
-      <c r="B54" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C54" t="s" s="6">
-        <v>114</v>
-      </c>
-      <c r="D54" s="7">
+      <c r="E54" s="9"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" ht="22.35" customHeight="1">
+      <c r="A55" t="s" s="7">
+        <v>115</v>
+      </c>
+      <c r="B55" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s" s="7">
+        <v>116</v>
+      </c>
+      <c r="D55" s="8">
         <v>1</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" ht="22.35" customHeight="1">
-      <c r="A55" t="s" s="6">
-        <v>115</v>
-      </c>
-      <c r="B55" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s" s="6">
-        <v>116</v>
-      </c>
-      <c r="D55" s="7">
+      <c r="E55" s="9"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" ht="22.35" customHeight="1">
+      <c r="A56" t="s" s="7">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s" s="7">
+        <v>118</v>
+      </c>
+      <c r="D56" s="8">
         <v>0.0612244897959184</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" ht="22.35" customHeight="1">
-      <c r="A56" t="s" s="6">
-        <v>117</v>
-      </c>
-      <c r="B56" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C56" t="s" s="6">
-        <v>118</v>
-      </c>
-      <c r="D56" s="7">
+      <c r="E56" s="9">
+        <v>0.705882352941176</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" ht="22.35" customHeight="1">
+      <c r="A57" t="s" s="7">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s" s="7">
+        <v>120</v>
+      </c>
+      <c r="D57" s="8">
         <v>1</v>
       </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" ht="22.35" customHeight="1">
-      <c r="A57" t="s" s="6">
-        <v>119</v>
-      </c>
-      <c r="B57" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C57" t="s" s="6">
-        <v>120</v>
-      </c>
-      <c r="D57" s="7">
+      <c r="E57" s="9"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" ht="22.35" customHeight="1">
+      <c r="A58" t="s" s="7">
+        <v>121</v>
+      </c>
+      <c r="B58" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s" s="7">
+        <v>122</v>
+      </c>
+      <c r="D58" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" ht="22.35" customHeight="1">
-      <c r="A58" t="s" s="6">
-        <v>121</v>
-      </c>
-      <c r="B58" t="s" s="6">
+      <c r="E58" s="9"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" ht="22.35" customHeight="1">
+      <c r="A59" t="s" s="7">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C58" t="s" s="6">
-        <v>122</v>
-      </c>
-      <c r="D58" s="7">
+      <c r="C59" t="s" s="7">
+        <v>124</v>
+      </c>
+      <c r="D59" s="8">
         <v>0.551020408163265</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" ht="22.35" customHeight="1">
-      <c r="A59" t="s" s="6">
-        <v>123</v>
-      </c>
-      <c r="B59" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C59" t="s" s="6">
-        <v>124</v>
-      </c>
-      <c r="D59" s="7">
+      <c r="E59" s="9"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" ht="22.35" customHeight="1">
+      <c r="A60" t="s" s="7">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s" s="7">
+        <v>126</v>
+      </c>
+      <c r="D60" s="8">
         <v>0.755102040816327</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" ht="22.35" customHeight="1">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" t="s" s="7">
+        <v>127</v>
+      </c>
+      <c r="D61" s="8">
+        <v>0</v>
+      </c>
+      <c r="E61" s="9">
+        <v>0.676470588235294</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/cw21062021.xlsx
+++ b/cw21062021.xlsx
@@ -2483,7 +2483,9 @@
       <c r="D46" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E46" s="9"/>
+      <c r="E46" s="9">
+        <v>0.823529411764706</v>
+      </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -2539,7 +2541,9 @@
       <c r="D49" s="8">
         <v>0.653061224489796</v>
       </c>
-      <c r="E49" s="9"/>
+      <c r="E49" s="9">
+        <v>0.794117647058824</v>
+      </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>

--- a/cw21062021.xlsx
+++ b/cw21062021.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>Surname</t>
   </si>
@@ -193,6 +193,12 @@
     <t>H200288W</t>
   </si>
   <si>
+    <t>MADITSHA</t>
+  </si>
+  <si>
+    <t>H200294H</t>
+  </si>
+  <si>
     <t>MAEKA</t>
   </si>
   <si>
@@ -395,6 +401,12 @@
   </si>
   <si>
     <t>H180291G</t>
+  </si>
+  <si>
+    <t>ZENGEYA</t>
+  </si>
+  <si>
+    <t>H170170Q</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1625,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1719,7 +1731,9 @@
       <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9">
+        <v>0.882352941176471</v>
+      </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -1813,7 +1827,9 @@
       <c r="D10" s="8">
         <v>0.591836734693878</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9">
+        <v>0.823529411764706</v>
+      </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -1831,7 +1847,9 @@
       <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9">
+        <v>0.529411764705882</v>
+      </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -1923,7 +1941,9 @@
       <c r="D16" s="8">
         <v>0.755102040816327</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9">
+        <v>0.411764705882353</v>
+      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -1977,7 +1997,9 @@
       <c r="D19" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9">
+        <v>0.882352941176471</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -2127,9 +2149,11 @@
         <v>61</v>
       </c>
       <c r="D27" s="8">
-        <v>0.918367346938776</v>
-      </c>
-      <c r="E27" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.9411764705882349</v>
+      </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -2145,11 +2169,9 @@
         <v>63</v>
       </c>
       <c r="D28" s="8">
-        <v>0.653061224489796</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0.441176470588235</v>
-      </c>
+        <v>0.918367346938776</v>
+      </c>
+      <c r="E28" s="9"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -2165,9 +2187,11 @@
         <v>65</v>
       </c>
       <c r="D29" s="8">
-        <v>0.755102040816327</v>
-      </c>
-      <c r="E29" s="9"/>
+        <v>0.653061224489796</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0.441176470588235</v>
+      </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -2183,7 +2207,7 @@
         <v>67</v>
       </c>
       <c r="D30" s="8">
-        <v>0.510204081632653</v>
+        <v>0.755102040816327</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="10"/>
@@ -2201,11 +2225,9 @@
         <v>69</v>
       </c>
       <c r="D31" s="8">
-        <v>0.795918367346939</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0.382352941176471</v>
-      </c>
+        <v>0.510204081632653</v>
+      </c>
+      <c r="E31" s="9"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -2221,9 +2243,11 @@
         <v>71</v>
       </c>
       <c r="D32" s="8">
-        <v>0.816326530612245</v>
-      </c>
-      <c r="E32" s="9"/>
+        <v>0.795918367346939</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.382352941176471</v>
+      </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -2232,16 +2256,16 @@
       <c r="A33" t="s" s="7">
         <v>72</v>
       </c>
-      <c r="B33" s="10"/>
+      <c r="B33" t="s" s="7">
+        <v>9</v>
+      </c>
       <c r="C33" t="s" s="7">
         <v>73</v>
       </c>
       <c r="D33" s="8">
-        <v>0</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0.323529411764706</v>
-      </c>
+        <v>0.816326530612245</v>
+      </c>
+      <c r="E33" s="9"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -2250,16 +2274,16 @@
       <c r="A34" t="s" s="7">
         <v>74</v>
       </c>
-      <c r="B34" t="s" s="7">
-        <v>9</v>
-      </c>
+      <c r="B34" s="10"/>
       <c r="C34" t="s" s="7">
         <v>75</v>
       </c>
       <c r="D34" s="8">
-        <v>0.877551020408163</v>
-      </c>
-      <c r="E34" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.323529411764706</v>
+      </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -2295,7 +2319,9 @@
       <c r="D36" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E36" s="9"/>
+      <c r="E36" s="9">
+        <v>0.735294117647059</v>
+      </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -2329,11 +2355,9 @@
         <v>83</v>
       </c>
       <c r="D38" s="8">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="E38" s="9">
-        <v>0.411764705882353</v>
-      </c>
+        <v>0.877551020408163</v>
+      </c>
+      <c r="E38" s="9"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -2349,10 +2373,10 @@
         <v>85</v>
       </c>
       <c r="D39" s="8">
-        <v>0.918367346938776</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E39" s="9">
-        <v>0.735294117647059</v>
+        <v>0.411764705882353</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -2363,16 +2387,16 @@
         <v>86</v>
       </c>
       <c r="B40" t="s" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s" s="7">
         <v>87</v>
       </c>
       <c r="D40" s="8">
-        <v>0.673469387755102</v>
+        <v>0.918367346938776</v>
       </c>
       <c r="E40" s="9">
-        <v>0.5588235294117651</v>
+        <v>0.735294117647059</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
@@ -2383,31 +2407,33 @@
         <v>88</v>
       </c>
       <c r="B41" t="s" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s" s="7">
         <v>89</v>
       </c>
       <c r="D41" s="8">
-        <v>0.877551020408163</v>
-      </c>
-      <c r="E41" s="9"/>
+        <v>0.673469387755102</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0.5588235294117651</v>
+      </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
     <row r="42" ht="22.35" customHeight="1">
       <c r="A42" t="s" s="7">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s" s="7">
         <v>9</v>
       </c>
       <c r="C42" t="s" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D42" s="8">
-        <v>0.612244897959184</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="10"/>
@@ -2416,7 +2442,7 @@
     </row>
     <row r="43" ht="22.35" customHeight="1">
       <c r="A43" t="s" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s" s="7">
         <v>9</v>
@@ -2425,7 +2451,7 @@
         <v>92</v>
       </c>
       <c r="D43" s="8">
-        <v>1</v>
+        <v>0.612244897959184</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="10"/>
@@ -2443,7 +2469,7 @@
         <v>94</v>
       </c>
       <c r="D44" s="8">
-        <v>0.877551020408163</v>
+        <v>1</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="10"/>
@@ -2461,11 +2487,9 @@
         <v>96</v>
       </c>
       <c r="D45" s="8">
-        <v>0.755102040816327</v>
-      </c>
-      <c r="E45" s="9">
-        <v>0.617647058823529</v>
-      </c>
+        <v>0.877551020408163</v>
+      </c>
+      <c r="E45" s="9"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -2481,10 +2505,10 @@
         <v>98</v>
       </c>
       <c r="D46" s="8">
-        <v>0.877551020408163</v>
+        <v>0.755102040816327</v>
       </c>
       <c r="E46" s="9">
-        <v>0.823529411764706</v>
+        <v>0.617647058823529</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -2501,9 +2525,11 @@
         <v>100</v>
       </c>
       <c r="D47" s="8">
-        <v>0.938775510204082</v>
-      </c>
-      <c r="E47" s="9"/>
+        <v>0.877551020408163</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0.823529411764706</v>
+      </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -2519,11 +2545,9 @@
         <v>102</v>
       </c>
       <c r="D48" s="8">
-        <v>0.755102040816327</v>
-      </c>
-      <c r="E48" s="9">
-        <v>0.823529411764706</v>
-      </c>
+        <v>0.938775510204082</v>
+      </c>
+      <c r="E48" s="9"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -2539,10 +2563,10 @@
         <v>104</v>
       </c>
       <c r="D49" s="8">
-        <v>0.653061224489796</v>
+        <v>0.755102040816327</v>
       </c>
       <c r="E49" s="9">
-        <v>0.794117647058824</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -2559,9 +2583,11 @@
         <v>106</v>
       </c>
       <c r="D50" s="8">
-        <v>0.877551020408163</v>
-      </c>
-      <c r="E50" s="9"/>
+        <v>0.653061224489796</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0.794117647058824</v>
+      </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
@@ -2577,7 +2603,7 @@
         <v>108</v>
       </c>
       <c r="D51" s="8">
-        <v>0.510204081632653</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="10"/>
@@ -2595,7 +2621,7 @@
         <v>110</v>
       </c>
       <c r="D52" s="8">
-        <v>0.877551020408163</v>
+        <v>0.510204081632653</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="10"/>
@@ -2607,7 +2633,7 @@
         <v>111</v>
       </c>
       <c r="B53" t="s" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s" s="7">
         <v>112</v>
@@ -2615,9 +2641,7 @@
       <c r="D53" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E53" s="9">
-        <v>0.882352941176471</v>
-      </c>
+      <c r="E53" s="9"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
@@ -2635,7 +2659,9 @@
       <c r="D54" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E54" s="9"/>
+      <c r="E54" s="9">
+        <v>0.882352941176471</v>
+      </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -2645,15 +2671,17 @@
         <v>115</v>
       </c>
       <c r="B55" t="s" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s" s="7">
         <v>116</v>
       </c>
       <c r="D55" s="8">
-        <v>1</v>
-      </c>
-      <c r="E55" s="9"/>
+        <v>0.877551020408163</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0.970588235294118</v>
+      </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
@@ -2669,11 +2697,9 @@
         <v>118</v>
       </c>
       <c r="D56" s="8">
-        <v>0.0612244897959184</v>
-      </c>
-      <c r="E56" s="9">
-        <v>0.705882352941176</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E56" s="9"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -2689,9 +2715,11 @@
         <v>120</v>
       </c>
       <c r="D57" s="8">
-        <v>1</v>
-      </c>
-      <c r="E57" s="9"/>
+        <v>0.0612244897959184</v>
+      </c>
+      <c r="E57" s="9">
+        <v>0.705882352941176</v>
+      </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
@@ -2707,7 +2735,7 @@
         <v>122</v>
       </c>
       <c r="D58" s="8">
-        <v>0.877551020408163</v>
+        <v>1</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="10"/>
@@ -2719,13 +2747,13 @@
         <v>123</v>
       </c>
       <c r="B59" t="s" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s" s="7">
         <v>124</v>
       </c>
       <c r="D59" s="8">
-        <v>0.551020408163265</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="10"/>
@@ -2737,13 +2765,13 @@
         <v>125</v>
       </c>
       <c r="B60" t="s" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s" s="7">
         <v>126</v>
       </c>
       <c r="D60" s="8">
-        <v>0.755102040816327</v>
+        <v>0.551020408163265</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="10"/>
@@ -2751,20 +2779,58 @@
       <c r="H60" s="10"/>
     </row>
     <row r="61" ht="22.35" customHeight="1">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
+      <c r="A61" t="s" s="7">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s" s="7">
+        <v>9</v>
+      </c>
       <c r="C61" t="s" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D61" s="8">
-        <v>0</v>
-      </c>
-      <c r="E61" s="9">
-        <v>0.676470588235294</v>
-      </c>
+        <v>0.755102040816327</v>
+      </c>
+      <c r="E61" s="9"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
+    </row>
+    <row r="62" ht="22.35" customHeight="1">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" t="s" s="7">
+        <v>129</v>
+      </c>
+      <c r="D62" s="8">
+        <v>0</v>
+      </c>
+      <c r="E62" s="9">
+        <v>0.676470588235294</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" ht="22.35" customHeight="1">
+      <c r="A63" t="s" s="7">
+        <v>130</v>
+      </c>
+      <c r="B63" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s" s="7">
+        <v>131</v>
+      </c>
+      <c r="D63" s="8">
+        <v>0</v>
+      </c>
+      <c r="E63" s="9">
+        <v>0.882352941176471</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/cw21062021.xlsx
+++ b/cw21062021.xlsx
@@ -1677,7 +1677,9 @@
       <c r="D2" s="4">
         <v>0.877551020408163</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5">
+        <v>0.852941176470588</v>
+      </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -2339,7 +2341,9 @@
       <c r="D37" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E37" s="9"/>
+      <c r="E37" s="9">
+        <v>0.852941176470588</v>
+      </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>

--- a/cw21062021.xlsx
+++ b/cw21062021.xlsx
@@ -1811,7 +1811,9 @@
       <c r="D9" s="8">
         <v>0.530612244897959</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="9">
+        <v>0.441176470588235</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1869,7 +1871,9 @@
       <c r="D12" s="8">
         <v>0.8979591836734691</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9">
+        <v>0.794117647058824</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -1907,7 +1911,9 @@
       <c r="D14" s="8">
         <v>0.816326530612245</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9">
+        <v>0.5</v>
+      </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -1963,7 +1969,9 @@
       <c r="D17" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9">
+        <v>0.823529411764706</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -2135,7 +2143,9 @@
       <c r="D26" s="8">
         <v>0.755102040816327</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="9">
+        <v>0.852941176470588</v>
+      </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -2173,7 +2183,9 @@
       <c r="D28" s="8">
         <v>0.918367346938776</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="9">
+        <v>0.705882352941176</v>
+      </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -2475,7 +2487,9 @@
       <c r="D44" s="8">
         <v>1</v>
       </c>
-      <c r="E44" s="9"/>
+      <c r="E44" s="9">
+        <v>0.794117647058824</v>
+      </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -2609,7 +2623,9 @@
       <c r="D51" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E51" s="9"/>
+      <c r="E51" s="9">
+        <v>0.882352941176471</v>
+      </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -2627,7 +2643,9 @@
       <c r="D52" s="8">
         <v>0.510204081632653</v>
       </c>
-      <c r="E52" s="9"/>
+      <c r="E52" s="9">
+        <v>0.823529411764706</v>
+      </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
@@ -2759,7 +2777,9 @@
       <c r="D59" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E59" s="9"/>
+      <c r="E59" s="9">
+        <v>0.235294117647059</v>
+      </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>

--- a/cw21062021.xlsx
+++ b/cw21062021.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
   <si>
     <t>Surname</t>
   </si>
@@ -217,6 +217,12 @@
     <t>H200476V</t>
   </si>
   <si>
+    <t>MANYIKA</t>
+  </si>
+  <si>
+    <t>H190334N</t>
+  </si>
+  <si>
     <t>MAPFAZA</t>
   </si>
   <si>
@@ -400,13 +406,13 @@
     <t>H190811H</t>
   </si>
   <si>
+    <t>ZENGEYA</t>
+  </si>
+  <si>
+    <t>H170170Q</t>
+  </si>
+  <si>
     <t>H180291G</t>
-  </si>
-  <si>
-    <t>ZENGEYA</t>
-  </si>
-  <si>
-    <t>H170170Q</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1989,7 +1995,9 @@
       <c r="D18" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9">
+        <v>0.205882352941176</v>
+      </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -2107,7 +2115,9 @@
       <c r="D24" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="9">
+        <v>0.441176470588235</v>
+      </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -2223,7 +2233,9 @@
       <c r="D30" s="8">
         <v>0.755102040816327</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="9">
+        <v>0.764705882352941</v>
+      </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -2239,9 +2251,11 @@
         <v>69</v>
       </c>
       <c r="D31" s="8">
-        <v>0.510204081632653</v>
-      </c>
-      <c r="E31" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0.323529411764706</v>
+      </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -2257,10 +2271,10 @@
         <v>71</v>
       </c>
       <c r="D32" s="8">
-        <v>0.795918367346939</v>
+        <v>0.510204081632653</v>
       </c>
       <c r="E32" s="9">
-        <v>0.382352941176471</v>
+        <v>0.411764705882353</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -2277,9 +2291,11 @@
         <v>73</v>
       </c>
       <c r="D33" s="8">
-        <v>0.816326530612245</v>
-      </c>
-      <c r="E33" s="9"/>
+        <v>0.795918367346939</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.382352941176471</v>
+      </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -2288,15 +2304,17 @@
       <c r="A34" t="s" s="7">
         <v>74</v>
       </c>
-      <c r="B34" s="10"/>
+      <c r="B34" t="s" s="7">
+        <v>9</v>
+      </c>
       <c r="C34" t="s" s="7">
         <v>75</v>
       </c>
       <c r="D34" s="8">
-        <v>0</v>
+        <v>0.816326530612245</v>
       </c>
       <c r="E34" s="9">
-        <v>0.323529411764706</v>
+        <v>0.588235294117647</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -2306,16 +2324,16 @@
       <c r="A35" t="s" s="7">
         <v>76</v>
       </c>
-      <c r="B35" t="s" s="7">
-        <v>9</v>
-      </c>
+      <c r="B35" s="10"/>
       <c r="C35" t="s" s="7">
         <v>77</v>
       </c>
       <c r="D35" s="8">
-        <v>0.877551020408163</v>
-      </c>
-      <c r="E35" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.323529411764706</v>
+      </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -2334,7 +2352,7 @@
         <v>0.877551020408163</v>
       </c>
       <c r="E36" s="9">
-        <v>0.735294117647059</v>
+        <v>0.794117647058824</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -2354,7 +2372,7 @@
         <v>0.877551020408163</v>
       </c>
       <c r="E37" s="9">
-        <v>0.852941176470588</v>
+        <v>0.735294117647059</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -2373,7 +2391,9 @@
       <c r="D38" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E38" s="9"/>
+      <c r="E38" s="9">
+        <v>0.852941176470588</v>
+      </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -2389,11 +2409,9 @@
         <v>85</v>
       </c>
       <c r="D39" s="8">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="E39" s="9">
-        <v>0.411764705882353</v>
-      </c>
+        <v>0.877551020408163</v>
+      </c>
+      <c r="E39" s="9"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -2409,10 +2427,10 @@
         <v>87</v>
       </c>
       <c r="D40" s="8">
-        <v>0.918367346938776</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E40" s="9">
-        <v>0.735294117647059</v>
+        <v>0.411764705882353</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
@@ -2423,16 +2441,16 @@
         <v>88</v>
       </c>
       <c r="B41" t="s" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s" s="7">
         <v>89</v>
       </c>
       <c r="D41" s="8">
-        <v>0.673469387755102</v>
+        <v>0.918367346938776</v>
       </c>
       <c r="E41" s="9">
-        <v>0.5588235294117651</v>
+        <v>0.735294117647059</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -2443,31 +2461,33 @@
         <v>90</v>
       </c>
       <c r="B42" t="s" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s" s="7">
         <v>91</v>
       </c>
       <c r="D42" s="8">
-        <v>0.877551020408163</v>
-      </c>
-      <c r="E42" s="9"/>
+        <v>0.673469387755102</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0.5588235294117651</v>
+      </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
     <row r="43" ht="22.35" customHeight="1">
       <c r="A43" t="s" s="7">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s" s="7">
         <v>9</v>
       </c>
       <c r="C43" t="s" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D43" s="8">
-        <v>0.612244897959184</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="10"/>
@@ -2476,7 +2496,7 @@
     </row>
     <row r="44" ht="22.35" customHeight="1">
       <c r="A44" t="s" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s" s="7">
         <v>9</v>
@@ -2485,11 +2505,9 @@
         <v>94</v>
       </c>
       <c r="D44" s="8">
-        <v>1</v>
-      </c>
-      <c r="E44" s="9">
-        <v>0.794117647058824</v>
-      </c>
+        <v>0.612244897959184</v>
+      </c>
+      <c r="E44" s="9"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -2505,9 +2523,11 @@
         <v>96</v>
       </c>
       <c r="D45" s="8">
-        <v>0.877551020408163</v>
-      </c>
-      <c r="E45" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0.794117647058824</v>
+      </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -2523,10 +2543,10 @@
         <v>98</v>
       </c>
       <c r="D46" s="8">
-        <v>0.755102040816327</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="E46" s="9">
-        <v>0.617647058823529</v>
+        <v>0.735294117647059</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -2543,10 +2563,10 @@
         <v>100</v>
       </c>
       <c r="D47" s="8">
-        <v>0.877551020408163</v>
+        <v>0.755102040816327</v>
       </c>
       <c r="E47" s="9">
-        <v>0.823529411764706</v>
+        <v>0.617647058823529</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -2563,9 +2583,11 @@
         <v>102</v>
       </c>
       <c r="D48" s="8">
-        <v>0.938775510204082</v>
-      </c>
-      <c r="E48" s="9"/>
+        <v>0.877551020408163</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0.823529411764706</v>
+      </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -2581,10 +2603,10 @@
         <v>104</v>
       </c>
       <c r="D49" s="8">
-        <v>0.755102040816327</v>
+        <v>0.938775510204082</v>
       </c>
       <c r="E49" s="9">
-        <v>0.823529411764706</v>
+        <v>0.205882352941176</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -2601,10 +2623,10 @@
         <v>106</v>
       </c>
       <c r="D50" s="8">
-        <v>0.653061224489796</v>
+        <v>0.755102040816327</v>
       </c>
       <c r="E50" s="9">
-        <v>0.794117647058824</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
@@ -2621,10 +2643,10 @@
         <v>108</v>
       </c>
       <c r="D51" s="8">
-        <v>0.877551020408163</v>
+        <v>0.653061224489796</v>
       </c>
       <c r="E51" s="9">
-        <v>0.882352941176471</v>
+        <v>0.794117647058824</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
@@ -2641,10 +2663,10 @@
         <v>110</v>
       </c>
       <c r="D52" s="8">
-        <v>0.510204081632653</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="E52" s="9">
-        <v>0.823529411764706</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -2661,9 +2683,11 @@
         <v>112</v>
       </c>
       <c r="D53" s="8">
-        <v>0.877551020408163</v>
-      </c>
-      <c r="E53" s="9"/>
+        <v>0.510204081632653</v>
+      </c>
+      <c r="E53" s="9">
+        <v>0.823529411764706</v>
+      </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
@@ -2673,7 +2697,7 @@
         <v>113</v>
       </c>
       <c r="B54" t="s" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s" s="7">
         <v>114</v>
@@ -2682,7 +2706,7 @@
         <v>0.877551020408163</v>
       </c>
       <c r="E54" s="9">
-        <v>0.882352941176471</v>
+        <v>0.588235294117647</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
@@ -2702,7 +2726,7 @@
         <v>0.877551020408163</v>
       </c>
       <c r="E55" s="9">
-        <v>0.970588235294118</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
@@ -2713,15 +2737,17 @@
         <v>117</v>
       </c>
       <c r="B56" t="s" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s" s="7">
         <v>118</v>
       </c>
       <c r="D56" s="8">
-        <v>1</v>
-      </c>
-      <c r="E56" s="9"/>
+        <v>0.877551020408163</v>
+      </c>
+      <c r="E56" s="9">
+        <v>0.970588235294118</v>
+      </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -2737,10 +2763,10 @@
         <v>120</v>
       </c>
       <c r="D57" s="8">
-        <v>0.0612244897959184</v>
+        <v>1</v>
       </c>
       <c r="E57" s="9">
-        <v>0.705882352941176</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
@@ -2757,9 +2783,11 @@
         <v>122</v>
       </c>
       <c r="D58" s="8">
-        <v>1</v>
-      </c>
-      <c r="E58" s="9"/>
+        <v>0.0612244897959184</v>
+      </c>
+      <c r="E58" s="9">
+        <v>0.705882352941176</v>
+      </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
@@ -2775,10 +2803,10 @@
         <v>124</v>
       </c>
       <c r="D59" s="8">
-        <v>0.877551020408163</v>
+        <v>1</v>
       </c>
       <c r="E59" s="9">
-        <v>0.235294117647059</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
@@ -2789,15 +2817,17 @@
         <v>125</v>
       </c>
       <c r="B60" t="s" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s" s="7">
         <v>126</v>
       </c>
       <c r="D60" s="8">
-        <v>0.551020408163265</v>
-      </c>
-      <c r="E60" s="9"/>
+        <v>0.877551020408163</v>
+      </c>
+      <c r="E60" s="9">
+        <v>0.235294117647059</v>
+      </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
@@ -2807,13 +2837,13 @@
         <v>127</v>
       </c>
       <c r="B61" t="s" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s" s="7">
         <v>128</v>
       </c>
       <c r="D61" s="8">
-        <v>0.755102040816327</v>
+        <v>0.551020408163265</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="10"/>
@@ -2821,30 +2851,32 @@
       <c r="H61" s="10"/>
     </row>
     <row r="62" ht="22.35" customHeight="1">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
+      <c r="A62" t="s" s="7">
+        <v>129</v>
+      </c>
+      <c r="B62" t="s" s="7">
+        <v>9</v>
+      </c>
       <c r="C62" t="s" s="7">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D62" s="8">
-        <v>0</v>
-      </c>
-      <c r="E62" s="9">
-        <v>0.676470588235294</v>
-      </c>
+        <v>0.755102040816327</v>
+      </c>
+      <c r="E62" s="9"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
     </row>
     <row r="63" ht="22.35" customHeight="1">
       <c r="A63" t="s" s="7">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B63" t="s" s="7">
         <v>12</v>
       </c>
       <c r="C63" t="s" s="7">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D63" s="8">
         <v>0</v>
@@ -2855,6 +2887,22 @@
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
+    </row>
+    <row r="64" ht="22.35" customHeight="1">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" t="s" s="7">
+        <v>133</v>
+      </c>
+      <c r="D64" s="8">
+        <v>0</v>
+      </c>
+      <c r="E64" s="9">
+        <v>0.676470588235294</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/cw21062021.xlsx
+++ b/cw21062021.xlsx
@@ -1703,7 +1703,9 @@
       <c r="D3" s="8">
         <v>0.530612244897959</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -1721,7 +1723,9 @@
       <c r="D4" s="8">
         <v>0.244897959183673</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -1779,7 +1783,9 @@
       <c r="D7" s="8">
         <v>0.673469387755102</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1937,7 +1943,9 @@
       <c r="D15" s="8">
         <v>0.755102040816327</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -2135,7 +2143,9 @@
       <c r="D25" s="8">
         <v>0.571428571428571</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -2411,7 +2421,9 @@
       <c r="D39" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E39" s="9"/>
+      <c r="E39" s="9">
+        <v>0</v>
+      </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -2489,7 +2501,9 @@
       <c r="D43" s="8">
         <v>0.877551020408163</v>
       </c>
-      <c r="E43" s="9"/>
+      <c r="E43" s="9">
+        <v>0.882352941176471</v>
+      </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -2507,7 +2521,9 @@
       <c r="D44" s="8">
         <v>0.612244897959184</v>
       </c>
-      <c r="E44" s="9"/>
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -2845,7 +2861,9 @@
       <c r="D61" s="8">
         <v>0.551020408163265</v>
       </c>
-      <c r="E61" s="9"/>
+      <c r="E61" s="9">
+        <v>0</v>
+      </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
@@ -2863,7 +2881,9 @@
       <c r="D62" s="8">
         <v>0.755102040816327</v>
       </c>
-      <c r="E62" s="9"/>
+      <c r="E62" s="9">
+        <v>0</v>
+      </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>

--- a/cw21062021.xlsx
+++ b/cw21062021.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
   <si>
     <t>Surname</t>
   </si>
@@ -109,6 +109,12 @@
     <t>H200108W</t>
   </si>
   <si>
+    <t>DEKE</t>
+  </si>
+  <si>
+    <t>H180291G</t>
+  </si>
+  <si>
     <t>DIMBO</t>
   </si>
   <si>
@@ -265,6 +271,12 @@
     <t>H200230B</t>
   </si>
   <si>
+    <t>MAWEMA</t>
+  </si>
+  <si>
+    <t>H180278G</t>
+  </si>
+  <si>
     <t>MHASVI</t>
   </si>
   <si>
@@ -328,6 +340,12 @@
     <t>H200349G</t>
   </si>
   <si>
+    <t>MUTERO</t>
+  </si>
+  <si>
+    <t>H170218A</t>
+  </si>
+  <si>
     <t>NDIRIPO</t>
   </si>
   <si>
@@ -410,9 +428,6 @@
   </si>
   <si>
     <t>H170170Q</t>
-  </si>
-  <si>
-    <t>H180291G</t>
   </si>
 </sst>
 </file>
@@ -1631,7 +1646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1686,7 +1701,7 @@
       <c r="E2" s="5">
         <v>0.852941176470588</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
@@ -1706,7 +1721,7 @@
       <c r="E3" s="9">
         <v>0</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
@@ -1726,7 +1741,7 @@
       <c r="E4" s="9">
         <v>0</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
@@ -1746,7 +1761,7 @@
       <c r="E5" s="9">
         <v>0.882352941176471</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
@@ -1766,7 +1781,7 @@
       <c r="E6" s="9">
         <v>0.852941176470588</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
@@ -1786,7 +1801,7 @@
       <c r="E7" s="9">
         <v>0</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
@@ -1806,7 +1821,9 @@
       <c r="E8" s="9">
         <v>0.970588235294118</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="9">
+        <v>0.4</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
@@ -1826,7 +1843,7 @@
       <c r="E9" s="9">
         <v>0.441176470588235</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
@@ -1846,7 +1863,9 @@
       <c r="E10" s="9">
         <v>0.823529411764706</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="9">
+        <v>0.377777777777778</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
@@ -1866,7 +1885,7 @@
       <c r="E11" s="9">
         <v>0.529411764705882</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
@@ -1886,7 +1905,7 @@
       <c r="E12" s="9">
         <v>0.794117647058824</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
@@ -1901,12 +1920,14 @@
         <v>33</v>
       </c>
       <c r="D13" s="8">
-        <v>0.918367346938776</v>
+        <v>0</v>
       </c>
       <c r="E13" s="9">
-        <v>0.617647058823529</v>
-      </c>
-      <c r="F13" s="10"/>
+        <v>0.676470588235294</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.644444444444444</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
@@ -1915,18 +1936,18 @@
         <v>34</v>
       </c>
       <c r="B14" t="s" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s" s="7">
         <v>35</v>
       </c>
       <c r="D14" s="8">
-        <v>0.816326530612245</v>
+        <v>0.918367346938776</v>
       </c>
       <c r="E14" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="10"/>
+        <v>0.617647058823529</v>
+      </c>
+      <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
@@ -1941,12 +1962,12 @@
         <v>37</v>
       </c>
       <c r="D15" s="8">
-        <v>0.755102040816327</v>
+        <v>0.816326530612245</v>
       </c>
       <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="9"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
@@ -1964,9 +1985,9 @@
         <v>0.755102040816327</v>
       </c>
       <c r="E16" s="9">
-        <v>0.411764705882353</v>
-      </c>
-      <c r="F16" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
@@ -1975,18 +1996,18 @@
         <v>40</v>
       </c>
       <c r="B17" t="s" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s" s="7">
         <v>41</v>
       </c>
       <c r="D17" s="8">
-        <v>0.877551020408163</v>
+        <v>0.755102040816327</v>
       </c>
       <c r="E17" s="9">
-        <v>0.823529411764706</v>
-      </c>
-      <c r="F17" s="10"/>
+        <v>0.411764705882353</v>
+      </c>
+      <c r="F17" s="9"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
@@ -2004,9 +2025,9 @@
         <v>0.877551020408163</v>
       </c>
       <c r="E18" s="9">
-        <v>0.205882352941176</v>
-      </c>
-      <c r="F18" s="10"/>
+        <v>0.823529411764706</v>
+      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
     </row>
@@ -2024,9 +2045,9 @@
         <v>0.877551020408163</v>
       </c>
       <c r="E19" s="9">
-        <v>0.882352941176471</v>
-      </c>
-      <c r="F19" s="10"/>
+        <v>0.205882352941176</v>
+      </c>
+      <c r="F19" s="9"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
@@ -2044,9 +2065,11 @@
         <v>0.877551020408163</v>
       </c>
       <c r="E20" s="9">
-        <v>0.5588235294117651</v>
-      </c>
-      <c r="F20" s="10"/>
+        <v>0.882352941176471</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.555555555555556</v>
+      </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
@@ -2064,9 +2087,9 @@
         <v>0.877551020408163</v>
       </c>
       <c r="E21" s="9">
-        <v>0.470588235294118</v>
-      </c>
-      <c r="F21" s="10"/>
+        <v>0.5588235294117651</v>
+      </c>
+      <c r="F21" s="9"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
@@ -2075,7 +2098,7 @@
         <v>50</v>
       </c>
       <c r="B22" t="s" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s" s="7">
         <v>51</v>
@@ -2086,7 +2109,9 @@
       <c r="E22" s="9">
         <v>0.470588235294118</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="9">
+        <v>0.666666666666667</v>
+      </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
@@ -2101,12 +2126,12 @@
         <v>53</v>
       </c>
       <c r="D23" s="8">
-        <v>0.775510204081633</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="E23" s="9">
-        <v>0.735294117647059</v>
-      </c>
-      <c r="F23" s="10"/>
+        <v>0.470588235294118</v>
+      </c>
+      <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
@@ -2115,18 +2140,18 @@
         <v>54</v>
       </c>
       <c r="B24" t="s" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s" s="7">
         <v>55</v>
       </c>
       <c r="D24" s="8">
-        <v>0.877551020408163</v>
+        <v>0.775510204081633</v>
       </c>
       <c r="E24" s="9">
-        <v>0.441176470588235</v>
-      </c>
-      <c r="F24" s="10"/>
+        <v>0.735294117647059</v>
+      </c>
+      <c r="F24" s="9"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
@@ -2141,12 +2166,14 @@
         <v>57</v>
       </c>
       <c r="D25" s="8">
-        <v>0.571428571428571</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="E25" s="9">
-        <v>0</v>
-      </c>
-      <c r="F25" s="10"/>
+        <v>0.441176470588235</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.466666666666667</v>
+      </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
@@ -2161,12 +2188,12 @@
         <v>59</v>
       </c>
       <c r="D26" s="8">
-        <v>0.755102040816327</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E26" s="9">
-        <v>0.852941176470588</v>
-      </c>
-      <c r="F26" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="9"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
@@ -2181,12 +2208,12 @@
         <v>61</v>
       </c>
       <c r="D27" s="8">
-        <v>0</v>
+        <v>0.755102040816327</v>
       </c>
       <c r="E27" s="9">
-        <v>0.9411764705882349</v>
-      </c>
-      <c r="F27" s="10"/>
+        <v>0.852941176470588</v>
+      </c>
+      <c r="F27" s="9"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
@@ -2201,12 +2228,14 @@
         <v>63</v>
       </c>
       <c r="D28" s="8">
-        <v>0.918367346938776</v>
+        <v>0</v>
       </c>
       <c r="E28" s="9">
-        <v>0.705882352941176</v>
-      </c>
-      <c r="F28" s="10"/>
+        <v>0.9411764705882349</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.777777777777778</v>
+      </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
@@ -2221,12 +2250,12 @@
         <v>65</v>
       </c>
       <c r="D29" s="8">
-        <v>0.653061224489796</v>
+        <v>0.918367346938776</v>
       </c>
       <c r="E29" s="9">
-        <v>0.441176470588235</v>
-      </c>
-      <c r="F29" s="10"/>
+        <v>0.705882352941176</v>
+      </c>
+      <c r="F29" s="9"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
@@ -2241,12 +2270,14 @@
         <v>67</v>
       </c>
       <c r="D30" s="8">
-        <v>0.755102040816327</v>
+        <v>0.653061224489796</v>
       </c>
       <c r="E30" s="9">
-        <v>0.764705882352941</v>
-      </c>
-      <c r="F30" s="10"/>
+        <v>0.441176470588235</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.555555555555556</v>
+      </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
@@ -2261,12 +2292,12 @@
         <v>69</v>
       </c>
       <c r="D31" s="8">
-        <v>0</v>
+        <v>0.755102040816327</v>
       </c>
       <c r="E31" s="9">
-        <v>0.323529411764706</v>
-      </c>
-      <c r="F31" s="10"/>
+        <v>0.764705882352941</v>
+      </c>
+      <c r="F31" s="9"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
@@ -2281,12 +2312,12 @@
         <v>71</v>
       </c>
       <c r="D32" s="8">
-        <v>0.510204081632653</v>
+        <v>0</v>
       </c>
       <c r="E32" s="9">
-        <v>0.411764705882353</v>
-      </c>
-      <c r="F32" s="10"/>
+        <v>0.323529411764706</v>
+      </c>
+      <c r="F32" s="9"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
@@ -2301,12 +2332,12 @@
         <v>73</v>
       </c>
       <c r="D33" s="8">
-        <v>0.795918367346939</v>
+        <v>0.510204081632653</v>
       </c>
       <c r="E33" s="9">
-        <v>0.382352941176471</v>
-      </c>
-      <c r="F33" s="10"/>
+        <v>0.411764705882353</v>
+      </c>
+      <c r="F33" s="9"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
@@ -2321,12 +2352,14 @@
         <v>75</v>
       </c>
       <c r="D34" s="8">
-        <v>0.816326530612245</v>
+        <v>0.795918367346939</v>
       </c>
       <c r="E34" s="9">
-        <v>0.588235294117647</v>
-      </c>
-      <c r="F34" s="10"/>
+        <v>0.382352941176471</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0.333333333333333</v>
+      </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
     </row>
@@ -2334,17 +2367,19 @@
       <c r="A35" t="s" s="7">
         <v>76</v>
       </c>
-      <c r="B35" s="10"/>
+      <c r="B35" t="s" s="7">
+        <v>9</v>
+      </c>
       <c r="C35" t="s" s="7">
         <v>77</v>
       </c>
       <c r="D35" s="8">
-        <v>0</v>
+        <v>0.816326530612245</v>
       </c>
       <c r="E35" s="9">
-        <v>0.323529411764706</v>
-      </c>
-      <c r="F35" s="10"/>
+        <v>0.588235294117647</v>
+      </c>
+      <c r="F35" s="9"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
@@ -2352,19 +2387,17 @@
       <c r="A36" t="s" s="7">
         <v>78</v>
       </c>
-      <c r="B36" t="s" s="7">
-        <v>9</v>
-      </c>
+      <c r="B36" s="10"/>
       <c r="C36" t="s" s="7">
         <v>79</v>
       </c>
       <c r="D36" s="8">
-        <v>0.877551020408163</v>
+        <v>0</v>
       </c>
       <c r="E36" s="9">
-        <v>0.794117647058824</v>
-      </c>
-      <c r="F36" s="10"/>
+        <v>0.323529411764706</v>
+      </c>
+      <c r="F36" s="9"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
@@ -2382,9 +2415,9 @@
         <v>0.877551020408163</v>
       </c>
       <c r="E37" s="9">
-        <v>0.735294117647059</v>
-      </c>
-      <c r="F37" s="10"/>
+        <v>0.794117647058824</v>
+      </c>
+      <c r="F37" s="9"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
@@ -2402,9 +2435,9 @@
         <v>0.877551020408163</v>
       </c>
       <c r="E38" s="9">
-        <v>0.852941176470588</v>
-      </c>
-      <c r="F38" s="10"/>
+        <v>0.735294117647059</v>
+      </c>
+      <c r="F38" s="9"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
@@ -2422,9 +2455,9 @@
         <v>0.877551020408163</v>
       </c>
       <c r="E39" s="9">
-        <v>0</v>
-      </c>
-      <c r="F39" s="10"/>
+        <v>0.852941176470588</v>
+      </c>
+      <c r="F39" s="9"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
@@ -2432,19 +2465,19 @@
       <c r="A40" t="s" s="7">
         <v>86</v>
       </c>
-      <c r="B40" t="s" s="7">
-        <v>9</v>
-      </c>
+      <c r="B40" s="10"/>
       <c r="C40" t="s" s="7">
         <v>87</v>
       </c>
       <c r="D40" s="8">
-        <v>0.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="E40" s="9">
-        <v>0.411764705882353</v>
-      </c>
-      <c r="F40" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="9">
+        <v>0.6</v>
+      </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
     </row>
@@ -2459,12 +2492,12 @@
         <v>89</v>
       </c>
       <c r="D41" s="8">
-        <v>0.918367346938776</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="E41" s="9">
-        <v>0.735294117647059</v>
-      </c>
-      <c r="F41" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="9"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
@@ -2473,18 +2506,18 @@
         <v>90</v>
       </c>
       <c r="B42" t="s" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s" s="7">
         <v>91</v>
       </c>
       <c r="D42" s="8">
-        <v>0.673469387755102</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E42" s="9">
-        <v>0.5588235294117651</v>
-      </c>
-      <c r="F42" s="10"/>
+        <v>0.411764705882353</v>
+      </c>
+      <c r="F42" s="9"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
@@ -2499,58 +2532,58 @@
         <v>93</v>
       </c>
       <c r="D43" s="8">
-        <v>0.877551020408163</v>
+        <v>0.918367346938776</v>
       </c>
       <c r="E43" s="9">
-        <v>0.882352941176471</v>
-      </c>
-      <c r="F43" s="10"/>
+        <v>0.735294117647059</v>
+      </c>
+      <c r="F43" s="9"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
     </row>
     <row r="44" ht="22.35" customHeight="1">
       <c r="A44" t="s" s="7">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D44" s="8">
-        <v>0.612244897959184</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="E44" s="9">
-        <v>0</v>
-      </c>
-      <c r="F44" s="10"/>
+        <v>0.5588235294117651</v>
+      </c>
+      <c r="F44" s="9"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
     </row>
     <row r="45" ht="22.35" customHeight="1">
       <c r="A45" t="s" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s" s="7">
         <v>9</v>
       </c>
       <c r="C45" t="s" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D45" s="8">
-        <v>1</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="E45" s="9">
-        <v>0.794117647058824</v>
-      </c>
-      <c r="F45" s="10"/>
+        <v>0.882352941176471</v>
+      </c>
+      <c r="F45" s="9"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
     <row r="46" ht="22.35" customHeight="1">
       <c r="A46" t="s" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s" s="7">
         <v>9</v>
@@ -2559,12 +2592,12 @@
         <v>98</v>
       </c>
       <c r="D46" s="8">
-        <v>0.877551020408163</v>
+        <v>0.612244897959184</v>
       </c>
       <c r="E46" s="9">
-        <v>0.735294117647059</v>
-      </c>
-      <c r="F46" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="9"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
@@ -2579,12 +2612,12 @@
         <v>100</v>
       </c>
       <c r="D47" s="8">
-        <v>0.755102040816327</v>
+        <v>1</v>
       </c>
       <c r="E47" s="9">
-        <v>0.617647058823529</v>
-      </c>
-      <c r="F47" s="10"/>
+        <v>0.794117647058824</v>
+      </c>
+      <c r="F47" s="9"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
@@ -2602,9 +2635,9 @@
         <v>0.877551020408163</v>
       </c>
       <c r="E48" s="9">
-        <v>0.823529411764706</v>
-      </c>
-      <c r="F48" s="10"/>
+        <v>0.735294117647059</v>
+      </c>
+      <c r="F48" s="9"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
@@ -2619,12 +2652,14 @@
         <v>104</v>
       </c>
       <c r="D49" s="8">
-        <v>0.938775510204082</v>
+        <v>0.755102040816327</v>
       </c>
       <c r="E49" s="9">
-        <v>0.205882352941176</v>
-      </c>
-      <c r="F49" s="10"/>
+        <v>0.617647058823529</v>
+      </c>
+      <c r="F49" s="9">
+        <v>0.7333333333333329</v>
+      </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
@@ -2639,12 +2674,12 @@
         <v>106</v>
       </c>
       <c r="D50" s="8">
-        <v>0.755102040816327</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="E50" s="9">
         <v>0.823529411764706</v>
       </c>
-      <c r="F50" s="10"/>
+      <c r="F50" s="9"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
     </row>
@@ -2659,12 +2694,14 @@
         <v>108</v>
       </c>
       <c r="D51" s="8">
-        <v>0.653061224489796</v>
+        <v>0.938775510204082</v>
       </c>
       <c r="E51" s="9">
-        <v>0.794117647058824</v>
-      </c>
-      <c r="F51" s="10"/>
+        <v>0.205882352941176</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0.6</v>
+      </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
@@ -2672,19 +2709,19 @@
       <c r="A52" t="s" s="7">
         <v>109</v>
       </c>
-      <c r="B52" t="s" s="7">
-        <v>9</v>
-      </c>
+      <c r="B52" s="10"/>
       <c r="C52" t="s" s="7">
         <v>110</v>
       </c>
       <c r="D52" s="8">
-        <v>0.877551020408163</v>
+        <v>0</v>
       </c>
       <c r="E52" s="9">
-        <v>0.882352941176471</v>
-      </c>
-      <c r="F52" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="9">
+        <v>0.4</v>
+      </c>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
     </row>
@@ -2699,12 +2736,12 @@
         <v>112</v>
       </c>
       <c r="D53" s="8">
-        <v>0.510204081632653</v>
+        <v>0.755102040816327</v>
       </c>
       <c r="E53" s="9">
         <v>0.823529411764706</v>
       </c>
-      <c r="F53" s="10"/>
+      <c r="F53" s="9"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
     </row>
@@ -2719,12 +2756,12 @@
         <v>114</v>
       </c>
       <c r="D54" s="8">
-        <v>0.877551020408163</v>
+        <v>0.653061224489796</v>
       </c>
       <c r="E54" s="9">
-        <v>0.588235294117647</v>
-      </c>
-      <c r="F54" s="10"/>
+        <v>0.794117647058824</v>
+      </c>
+      <c r="F54" s="9"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
     </row>
@@ -2733,7 +2770,7 @@
         <v>115</v>
       </c>
       <c r="B55" t="s" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s" s="7">
         <v>116</v>
@@ -2744,7 +2781,7 @@
       <c r="E55" s="9">
         <v>0.882352941176471</v>
       </c>
-      <c r="F55" s="10"/>
+      <c r="F55" s="9"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
     </row>
@@ -2753,18 +2790,18 @@
         <v>117</v>
       </c>
       <c r="B56" t="s" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s" s="7">
         <v>118</v>
       </c>
       <c r="D56" s="8">
-        <v>0.877551020408163</v>
+        <v>0.510204081632653</v>
       </c>
       <c r="E56" s="9">
-        <v>0.970588235294118</v>
-      </c>
-      <c r="F56" s="10"/>
+        <v>0.823529411764706</v>
+      </c>
+      <c r="F56" s="9"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
     </row>
@@ -2779,12 +2816,14 @@
         <v>120</v>
       </c>
       <c r="D57" s="8">
-        <v>1</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="E57" s="9">
-        <v>0.529411764705882</v>
-      </c>
-      <c r="F57" s="10"/>
+        <v>0.588235294117647</v>
+      </c>
+      <c r="F57" s="9">
+        <v>0.688888888888889</v>
+      </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
     </row>
@@ -2793,18 +2832,20 @@
         <v>121</v>
       </c>
       <c r="B58" t="s" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s" s="7">
         <v>122</v>
       </c>
       <c r="D58" s="8">
-        <v>0.0612244897959184</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="E58" s="9">
-        <v>0.705882352941176</v>
-      </c>
-      <c r="F58" s="10"/>
+        <v>0.882352941176471</v>
+      </c>
+      <c r="F58" s="9">
+        <v>0.8</v>
+      </c>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
@@ -2813,18 +2854,20 @@
         <v>123</v>
       </c>
       <c r="B59" t="s" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s" s="7">
         <v>124</v>
       </c>
       <c r="D59" s="8">
-        <v>1</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="E59" s="9">
-        <v>0.882352941176471</v>
-      </c>
-      <c r="F59" s="10"/>
+        <v>0.970588235294118</v>
+      </c>
+      <c r="F59" s="9">
+        <v>0.8</v>
+      </c>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
     </row>
@@ -2839,12 +2882,12 @@
         <v>126</v>
       </c>
       <c r="D60" s="8">
-        <v>0.877551020408163</v>
+        <v>1</v>
       </c>
       <c r="E60" s="9">
-        <v>0.235294117647059</v>
-      </c>
-      <c r="F60" s="10"/>
+        <v>0.529411764705882</v>
+      </c>
+      <c r="F60" s="9"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
     </row>
@@ -2853,18 +2896,20 @@
         <v>127</v>
       </c>
       <c r="B61" t="s" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s" s="7">
         <v>128</v>
       </c>
       <c r="D61" s="8">
-        <v>0.551020408163265</v>
+        <v>0.0612244897959184</v>
       </c>
       <c r="E61" s="9">
-        <v>0</v>
-      </c>
-      <c r="F61" s="10"/>
+        <v>0.705882352941176</v>
+      </c>
+      <c r="F61" s="9">
+        <v>0.4</v>
+      </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
@@ -2879,12 +2924,12 @@
         <v>130</v>
       </c>
       <c r="D62" s="8">
-        <v>0.755102040816327</v>
+        <v>1</v>
       </c>
       <c r="E62" s="9">
-        <v>0</v>
-      </c>
-      <c r="F62" s="10"/>
+        <v>0.882352941176471</v>
+      </c>
+      <c r="F62" s="9"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
     </row>
@@ -2893,36 +2938,82 @@
         <v>131</v>
       </c>
       <c r="B63" t="s" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s" s="7">
         <v>132</v>
       </c>
       <c r="D63" s="8">
-        <v>0</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="E63" s="9">
-        <v>0.882352941176471</v>
-      </c>
-      <c r="F63" s="10"/>
+        <v>0.235294117647059</v>
+      </c>
+      <c r="F63" s="9"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
     </row>
     <row r="64" ht="22.35" customHeight="1">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
+      <c r="A64" t="s" s="7">
+        <v>133</v>
+      </c>
+      <c r="B64" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="C64" t="s" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D64" s="8">
+        <v>0.551020408163265</v>
+      </c>
+      <c r="E64" s="9">
         <v>0</v>
       </c>
-      <c r="E64" s="9">
-        <v>0.676470588235294</v>
-      </c>
-      <c r="F64" s="10"/>
+      <c r="F64" s="9"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
+    </row>
+    <row r="65" ht="22.35" customHeight="1">
+      <c r="A65" t="s" s="7">
+        <v>135</v>
+      </c>
+      <c r="B65" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s" s="7">
+        <v>136</v>
+      </c>
+      <c r="D65" s="8">
+        <v>0.755102040816327</v>
+      </c>
+      <c r="E65" s="9">
+        <v>0</v>
+      </c>
+      <c r="F65" s="9">
+        <v>0.622222222222222</v>
+      </c>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" ht="22.35" customHeight="1">
+      <c r="A66" t="s" s="7">
+        <v>137</v>
+      </c>
+      <c r="B66" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s" s="7">
+        <v>138</v>
+      </c>
+      <c r="D66" s="8">
+        <v>0</v>
+      </c>
+      <c r="E66" s="9">
+        <v>0.882352941176471</v>
+      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/cw21062021.xlsx
+++ b/cw21062021.xlsx
@@ -1701,7 +1701,9 @@
       <c r="E2" s="5">
         <v>0.852941176470588</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5">
+        <v>0.444444444444444</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
@@ -1721,7 +1723,9 @@
       <c r="E3" s="9">
         <v>0</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
@@ -1741,7 +1745,9 @@
       <c r="E4" s="9">
         <v>0</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
@@ -1761,7 +1767,9 @@
       <c r="E5" s="9">
         <v>0.882352941176471</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9">
+        <v>0.755555555555556</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
@@ -1781,7 +1789,9 @@
       <c r="E6" s="9">
         <v>0.852941176470588</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="9">
+        <v>0.555555555555556</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
@@ -1801,7 +1811,9 @@
       <c r="E7" s="9">
         <v>0</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
@@ -1843,7 +1855,9 @@
       <c r="E9" s="9">
         <v>0.441176470588235</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="9">
+        <v>0.644444444444444</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
@@ -1885,7 +1899,9 @@
       <c r="E11" s="9">
         <v>0.529411764705882</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="9">
+        <v>0.377777777777778</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
@@ -1905,7 +1921,9 @@
       <c r="E12" s="9">
         <v>0.794117647058824</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9">
+        <v>0.8</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
@@ -1947,7 +1965,9 @@
       <c r="E14" s="9">
         <v>0.617647058823529</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="9">
+        <v>0.533333333333333</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
@@ -1967,7 +1987,9 @@
       <c r="E15" s="9">
         <v>0.5</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="9">
+        <v>0.622222222222222</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
@@ -1987,7 +2009,9 @@
       <c r="E16" s="9">
         <v>0</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
@@ -2007,7 +2031,9 @@
       <c r="E17" s="9">
         <v>0.411764705882353</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9">
+        <v>0.644444444444444</v>
+      </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
@@ -2047,7 +2073,9 @@
       <c r="E19" s="9">
         <v>0.205882352941176</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="9">
+        <v>0.6</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
@@ -2089,7 +2117,9 @@
       <c r="E21" s="9">
         <v>0.5588235294117651</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="9">
+        <v>0.466666666666667</v>
+      </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
@@ -2131,7 +2161,9 @@
       <c r="E23" s="9">
         <v>0.470588235294118</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="9">
+        <v>0.422222222222222</v>
+      </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
@@ -2151,7 +2183,9 @@
       <c r="E24" s="9">
         <v>0.735294117647059</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
@@ -2193,7 +2227,9 @@
       <c r="E26" s="9">
         <v>0</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
@@ -2213,7 +2249,9 @@
       <c r="E27" s="9">
         <v>0.852941176470588</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="9">
+        <v>0.777777777777778</v>
+      </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
@@ -2255,7 +2293,9 @@
       <c r="E29" s="9">
         <v>0.705882352941176</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="9">
+        <v>0.355555555555556</v>
+      </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
@@ -2297,7 +2337,9 @@
       <c r="E31" s="9">
         <v>0.764705882352941</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="9">
+        <v>0.777777777777778</v>
+      </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
@@ -2317,7 +2359,9 @@
       <c r="E32" s="9">
         <v>0.323529411764706</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="9">
+        <v>0.488888888888889</v>
+      </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
@@ -2337,7 +2381,9 @@
       <c r="E33" s="9">
         <v>0.411764705882353</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="9">
+        <v>0.377777777777778</v>
+      </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
@@ -2379,7 +2425,9 @@
       <c r="E35" s="9">
         <v>0.588235294117647</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="9">
+        <v>0.6</v>
+      </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
@@ -2397,7 +2445,9 @@
       <c r="E36" s="9">
         <v>0.323529411764706</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="9">
+        <v>0.6</v>
+      </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
@@ -2417,7 +2467,9 @@
       <c r="E37" s="9">
         <v>0.794117647058824</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="9">
+        <v>0.666666666666667</v>
+      </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
@@ -2437,7 +2489,9 @@
       <c r="E38" s="9">
         <v>0.735294117647059</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="9">
+        <v>0.7333333333333329</v>
+      </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
@@ -2457,7 +2511,9 @@
       <c r="E39" s="9">
         <v>0.852941176470588</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="9">
+        <v>0.666666666666667</v>
+      </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
@@ -2497,7 +2553,9 @@
       <c r="E41" s="9">
         <v>0</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="9">
+        <v>0</v>
+      </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
@@ -2517,7 +2575,9 @@
       <c r="E42" s="9">
         <v>0.411764705882353</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="9">
+        <v>0</v>
+      </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
@@ -2537,7 +2597,9 @@
       <c r="E43" s="9">
         <v>0.735294117647059</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="9">
+        <v>0.511111111111111</v>
+      </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
     </row>
@@ -2557,7 +2619,9 @@
       <c r="E44" s="9">
         <v>0.5588235294117651</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="9">
+        <v>0.711111111111111</v>
+      </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
     </row>
@@ -2577,7 +2641,9 @@
       <c r="E45" s="9">
         <v>0.882352941176471</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="9">
+        <v>0.377777777777778</v>
+      </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
@@ -2597,7 +2663,9 @@
       <c r="E46" s="9">
         <v>0</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="9">
+        <v>0</v>
+      </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
@@ -2617,7 +2685,9 @@
       <c r="E47" s="9">
         <v>0.794117647058824</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="9">
+        <v>0.5777777777777779</v>
+      </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
@@ -2637,7 +2707,9 @@
       <c r="E48" s="9">
         <v>0.735294117647059</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="9">
+        <v>0.533333333333333</v>
+      </c>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
@@ -2679,7 +2751,9 @@
       <c r="E50" s="9">
         <v>0.823529411764706</v>
       </c>
-      <c r="F50" s="9"/>
+      <c r="F50" s="9">
+        <v>0.822222222222222</v>
+      </c>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
     </row>
@@ -2741,7 +2815,9 @@
       <c r="E53" s="9">
         <v>0.823529411764706</v>
       </c>
-      <c r="F53" s="9"/>
+      <c r="F53" s="9">
+        <v>0.7333333333333329</v>
+      </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
     </row>
@@ -2761,7 +2837,9 @@
       <c r="E54" s="9">
         <v>0.794117647058824</v>
       </c>
-      <c r="F54" s="9"/>
+      <c r="F54" s="9">
+        <v>0.377777777777778</v>
+      </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
     </row>
@@ -2781,7 +2859,9 @@
       <c r="E55" s="9">
         <v>0.882352941176471</v>
       </c>
-      <c r="F55" s="9"/>
+      <c r="F55" s="9">
+        <v>0.377777777777778</v>
+      </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
     </row>
@@ -2801,7 +2881,9 @@
       <c r="E56" s="9">
         <v>0.823529411764706</v>
       </c>
-      <c r="F56" s="9"/>
+      <c r="F56" s="9">
+        <v>0.688888888888889</v>
+      </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
     </row>
@@ -2887,7 +2969,9 @@
       <c r="E60" s="9">
         <v>0.529411764705882</v>
       </c>
-      <c r="F60" s="9"/>
+      <c r="F60" s="9">
+        <v>0.8</v>
+      </c>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
     </row>
@@ -2949,7 +3033,9 @@
       <c r="E63" s="9">
         <v>0.235294117647059</v>
       </c>
-      <c r="F63" s="9"/>
+      <c r="F63" s="9">
+        <v>0.755555555555556</v>
+      </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
     </row>
@@ -2969,7 +3055,9 @@
       <c r="E64" s="9">
         <v>0</v>
       </c>
-      <c r="F64" s="9"/>
+      <c r="F64" s="9">
+        <v>0</v>
+      </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
     </row>
@@ -3011,7 +3099,9 @@
       <c r="E66" s="9">
         <v>0.882352941176471</v>
       </c>
-      <c r="F66" s="9"/>
+      <c r="F66" s="9">
+        <v>0.5777777777777779</v>
+      </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
     </row>

--- a/cw21062021.xlsx
+++ b/cw21062021.xlsx
@@ -475,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -506,10 +506,55 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,13 +573,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -544,16 +634,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -565,7 +646,31 @@
     <xf numFmtId="2" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -588,6 +693,8 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffa5a5a5"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1659,7 +1766,7 @@
     <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.55" customHeight="1">
+    <row r="1" ht="22.65" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1681,1429 +1788,1474 @@
       <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" t="s" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" ht="23" customHeight="1">
+      <c r="A2" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="B2" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s" s="3">
+      <c r="B2" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>0.877551020408163</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>0.852941176470588</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>0.444444444444444</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" ht="22.35" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="G2" s="7">
+        <v>0.702702702702703</v>
+      </c>
+      <c r="H2" s="8">
+        <f>(LARGE(D2:G2,1)+LARGE(D2:G2,2)+LARGE(D2:G2,3))/3</f>
+        <v>0.811064966527151</v>
+      </c>
+    </row>
+    <row r="3" ht="23" customHeight="1">
+      <c r="A3" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="10">
         <v>0.530612244897959</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="11">
         <v>0</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="11">
         <v>0</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" ht="23" customHeight="1">
+      <c r="A4" t="s" s="9">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s" s="7">
+      <c r="B4" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="10">
         <v>0.244897959183673</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="11">
         <v>0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="11">
         <v>0</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="G4" s="12"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" ht="23" customHeight="1">
+      <c r="A5" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="10">
         <v>1</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="11">
         <v>0.882352941176471</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="11">
         <v>0.755555555555556</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="G5" s="12"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" ht="23" customHeight="1">
+      <c r="A6" t="s" s="9">
         <v>18</v>
       </c>
-      <c r="B6" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s" s="7">
+      <c r="B6" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s" s="9">
         <v>19</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="10">
         <v>0.877551020408163</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="11">
         <v>0.852941176470588</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="11">
         <v>0.555555555555556</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="G6" s="12"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" ht="23" customHeight="1">
+      <c r="A7" t="s" s="9">
         <v>20</v>
       </c>
-      <c r="B7" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s" s="7">
+      <c r="B7" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s" s="9">
         <v>21</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="10">
         <v>0.673469387755102</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="11">
         <v>0</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="11">
         <v>0</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" ht="22.35" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="G7" s="12"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" ht="23" customHeight="1">
+      <c r="A8" t="s" s="9">
         <v>22</v>
       </c>
-      <c r="B8" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s" s="7">
+      <c r="B8" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s" s="9">
         <v>23</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="10">
         <v>0.612244897959184</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="11">
         <v>0.970588235294118</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="11">
         <v>0.4</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" ht="22.35" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="G8" s="12"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" ht="23" customHeight="1">
+      <c r="A9" t="s" s="9">
         <v>24</v>
       </c>
-      <c r="B9" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s" s="7">
+      <c r="B9" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s" s="9">
         <v>25</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="10">
         <v>0.530612244897959</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="11">
         <v>0.441176470588235</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="11">
         <v>0.644444444444444</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" ht="22.35" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="G9" s="12"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" ht="23" customHeight="1">
+      <c r="A10" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="B10" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s" s="7">
+      <c r="B10" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="10">
         <v>0.591836734693878</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="11">
         <v>0.823529411764706</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="11">
         <v>0.377777777777778</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" ht="22.35" customHeight="1">
-      <c r="A11" t="s" s="7">
+      <c r="G10" s="12">
+        <v>0.621621621621622</v>
+      </c>
+      <c r="H10" s="14">
+        <f>(LARGE(D10:G10,1)+LARGE(D10:G10,2)+LARGE(D10:G10,3))/3</f>
+        <v>0.678995922693402</v>
+      </c>
+    </row>
+    <row r="11" ht="23" customHeight="1">
+      <c r="A11" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="B11" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="C11" t="s" s="7">
+      <c r="C11" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="10">
         <v>1</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="11">
         <v>0.529411764705882</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="11">
         <v>0.377777777777778</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" ht="22.35" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="G11" s="12"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" ht="23" customHeight="1">
+      <c r="A12" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="B12" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s" s="7">
+      <c r="B12" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s" s="9">
         <v>31</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="10">
         <v>0.8979591836734691</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="11">
         <v>0.794117647058824</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="11">
         <v>0.8</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" ht="22.35" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="G12" s="12"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" ht="23" customHeight="1">
+      <c r="A13" t="s" s="9">
         <v>32</v>
       </c>
-      <c r="B13" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s" s="7">
+      <c r="B13" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s" s="9">
         <v>33</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="10">
         <v>0</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="11">
         <v>0.676470588235294</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="11">
         <v>0.644444444444444</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" ht="22.35" customHeight="1">
-      <c r="A14" t="s" s="7">
+      <c r="G13" s="12"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" ht="23" customHeight="1">
+      <c r="A14" t="s" s="9">
         <v>34</v>
       </c>
-      <c r="B14" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s" s="7">
+      <c r="B14" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s" s="9">
         <v>35</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="10">
         <v>0.918367346938776</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="11">
         <v>0.617647058823529</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="11">
         <v>0.533333333333333</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" ht="22.35" customHeight="1">
-      <c r="A15" t="s" s="7">
+      <c r="G14" s="12"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" ht="23" customHeight="1">
+      <c r="A15" t="s" s="9">
         <v>36</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="B15" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="C15" t="s" s="7">
+      <c r="C15" t="s" s="9">
         <v>37</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="10">
         <v>0.816326530612245</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="11">
         <v>0.5</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="11">
         <v>0.622222222222222</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" ht="22.35" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="G15" s="12"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" ht="23" customHeight="1">
+      <c r="A16" t="s" s="9">
         <v>38</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="B16" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="C16" t="s" s="7">
+      <c r="C16" t="s" s="9">
         <v>39</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="10">
         <v>0.755102040816327</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="11">
         <v>0</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="11">
         <v>0</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" ht="22.35" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="G16" s="12"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" ht="23" customHeight="1">
+      <c r="A17" t="s" s="9">
         <v>40</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B17" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="C17" t="s" s="7">
+      <c r="C17" t="s" s="9">
         <v>41</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="10">
         <v>0.755102040816327</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="11">
         <v>0.411764705882353</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="11">
         <v>0.644444444444444</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" ht="22.35" customHeight="1">
-      <c r="A18" t="s" s="7">
+      <c r="G17" s="12"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" ht="23" customHeight="1">
+      <c r="A18" t="s" s="9">
         <v>42</v>
       </c>
-      <c r="B18" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s" s="7">
+      <c r="B18" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s" s="9">
         <v>43</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="10">
         <v>0.877551020408163</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="11">
         <v>0.823529411764706</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" ht="22.35" customHeight="1">
-      <c r="A19" t="s" s="7">
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" ht="23" customHeight="1">
+      <c r="A19" t="s" s="9">
         <v>44</v>
       </c>
-      <c r="B19" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s" s="7">
+      <c r="B19" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s" s="9">
         <v>45</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="10">
         <v>0.877551020408163</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="11">
         <v>0.205882352941176</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="11">
         <v>0.6</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" ht="22.35" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="G19" s="12"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" ht="23" customHeight="1">
+      <c r="A20" t="s" s="9">
         <v>46</v>
       </c>
-      <c r="B20" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s" s="7">
+      <c r="B20" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s" s="9">
         <v>47</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="10">
         <v>0.877551020408163</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="11">
         <v>0.882352941176471</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="11">
         <v>0.555555555555556</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" ht="22.35" customHeight="1">
-      <c r="A21" t="s" s="7">
+      <c r="G20" s="12">
+        <v>0.486486486486486</v>
+      </c>
+      <c r="H20" s="8">
+        <f>(LARGE(D20:G20,1)+LARGE(D20:G20,2)+LARGE(D20:G20,3))/3</f>
+        <v>0.77181983904673</v>
+      </c>
+    </row>
+    <row r="21" ht="23" customHeight="1">
+      <c r="A21" t="s" s="9">
         <v>48</v>
       </c>
-      <c r="B21" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s" s="7">
+      <c r="B21" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s" s="9">
         <v>49</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="10">
         <v>0.877551020408163</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="11">
         <v>0.5588235294117651</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="11">
         <v>0.466666666666667</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" ht="22.35" customHeight="1">
-      <c r="A22" t="s" s="7">
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" ht="23" customHeight="1">
+      <c r="A22" t="s" s="9">
         <v>50</v>
       </c>
-      <c r="B22" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s" s="7">
+      <c r="B22" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s" s="9">
         <v>51</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="10">
         <v>0.877551020408163</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="11">
         <v>0.470588235294118</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="11">
         <v>0.666666666666667</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" ht="22.35" customHeight="1">
-      <c r="A23" t="s" s="7">
+      <c r="G22" s="12"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" ht="23" customHeight="1">
+      <c r="A23" t="s" s="9">
         <v>52</v>
       </c>
-      <c r="B23" t="s" s="7">
+      <c r="B23" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="C23" t="s" s="7">
+      <c r="C23" t="s" s="9">
         <v>53</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="10">
         <v>0.877551020408163</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="11">
         <v>0.470588235294118</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="11">
         <v>0.422222222222222</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" ht="22.35" customHeight="1">
-      <c r="A24" t="s" s="7">
+      <c r="G23" s="12"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" ht="23" customHeight="1">
+      <c r="A24" t="s" s="9">
         <v>54</v>
       </c>
-      <c r="B24" t="s" s="7">
+      <c r="B24" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="C24" t="s" s="7">
+      <c r="C24" t="s" s="9">
         <v>55</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="10">
         <v>0.775510204081633</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="11">
         <v>0.735294117647059</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="11">
         <v>0</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" ht="22.35" customHeight="1">
-      <c r="A25" t="s" s="7">
+      <c r="G24" s="12">
+        <v>0.864864864864865</v>
+      </c>
+      <c r="H24" s="14">
+        <f>(LARGE(D24:G24,1)+LARGE(D24:G24,2)+LARGE(D24:G24,3))/3</f>
+        <v>0.791889728864519</v>
+      </c>
+    </row>
+    <row r="25" ht="23" customHeight="1">
+      <c r="A25" t="s" s="9">
         <v>56</v>
       </c>
-      <c r="B25" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s" s="7">
+      <c r="B25" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s" s="9">
         <v>57</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="10">
         <v>0.877551020408163</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="11">
         <v>0.441176470588235</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="11">
         <v>0.466666666666667</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" ht="22.35" customHeight="1">
-      <c r="A26" t="s" s="7">
+      <c r="G25" s="12">
+        <v>0.540540540540541</v>
+      </c>
+      <c r="H25" s="8">
+        <f>(LARGE(D25:G25,1)+LARGE(D25:G25,2)+LARGE(D25:G25,3))/3</f>
+        <v>0.628252742538457</v>
+      </c>
+    </row>
+    <row r="26" ht="23" customHeight="1">
+      <c r="A26" t="s" s="9">
         <v>58</v>
       </c>
-      <c r="B26" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s" s="7">
+      <c r="B26" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s" s="9">
         <v>59</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="10">
         <v>0.571428571428571</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="11">
         <v>0</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="11">
         <v>0</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" ht="22.35" customHeight="1">
-      <c r="A27" t="s" s="7">
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" ht="23" customHeight="1">
+      <c r="A27" t="s" s="9">
         <v>60</v>
       </c>
-      <c r="B27" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s" s="7">
+      <c r="B27" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s" s="9">
         <v>61</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="10">
         <v>0.755102040816327</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="11">
         <v>0.852941176470588</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="11">
         <v>0.777777777777778</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" ht="22.35" customHeight="1">
-      <c r="A28" t="s" s="7">
+      <c r="G27" s="12"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" ht="23" customHeight="1">
+      <c r="A28" t="s" s="9">
         <v>62</v>
       </c>
-      <c r="B28" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s" s="7">
+      <c r="B28" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s" s="9">
         <v>63</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="10">
         <v>0</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="11">
         <v>0.9411764705882349</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="11">
         <v>0.777777777777778</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" ht="22.35" customHeight="1">
-      <c r="A29" t="s" s="7">
+      <c r="G28" s="12"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" ht="23" customHeight="1">
+      <c r="A29" t="s" s="9">
         <v>64</v>
       </c>
-      <c r="B29" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s" s="7">
+      <c r="B29" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s" s="9">
         <v>65</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="10">
         <v>0.918367346938776</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="11">
         <v>0.705882352941176</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="11">
         <v>0.355555555555556</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" ht="22.35" customHeight="1">
-      <c r="A30" t="s" s="7">
+      <c r="G29" s="12"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" ht="23" customHeight="1">
+      <c r="A30" t="s" s="9">
         <v>66</v>
       </c>
-      <c r="B30" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s" s="7">
+      <c r="B30" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s" s="9">
         <v>67</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="10">
         <v>0.653061224489796</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="11">
         <v>0.441176470588235</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="11">
         <v>0.555555555555556</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" ht="22.35" customHeight="1">
-      <c r="A31" t="s" s="7">
+      <c r="G30" s="12"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" ht="23" customHeight="1">
+      <c r="A31" t="s" s="9">
         <v>68</v>
       </c>
-      <c r="B31" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s" s="7">
+      <c r="B31" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s" s="9">
         <v>69</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="10">
         <v>0.755102040816327</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="11">
         <v>0.764705882352941</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="11">
         <v>0.777777777777778</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" ht="22.35" customHeight="1">
-      <c r="A32" t="s" s="7">
+      <c r="G31" s="12"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" ht="23" customHeight="1">
+      <c r="A32" t="s" s="9">
         <v>70</v>
       </c>
-      <c r="B32" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s" s="7">
+      <c r="B32" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s" s="9">
         <v>71</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="10">
         <v>0</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="11">
         <v>0.323529411764706</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="11">
         <v>0.488888888888889</v>
       </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" ht="22.35" customHeight="1">
-      <c r="A33" t="s" s="7">
+      <c r="G32" s="12"/>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" ht="23" customHeight="1">
+      <c r="A33" t="s" s="9">
         <v>72</v>
       </c>
-      <c r="B33" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s" s="7">
+      <c r="B33" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s" s="9">
         <v>73</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="10">
         <v>0.510204081632653</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="11">
         <v>0.411764705882353</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="11">
         <v>0.377777777777778</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" ht="22.35" customHeight="1">
-      <c r="A34" t="s" s="7">
+      <c r="G33" s="12"/>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" ht="23" customHeight="1">
+      <c r="A34" t="s" s="9">
         <v>74</v>
       </c>
-      <c r="B34" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s" s="7">
+      <c r="B34" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s" s="9">
         <v>75</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="10">
         <v>0.795918367346939</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="11">
         <v>0.382352941176471</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="11">
         <v>0.333333333333333</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" ht="22.35" customHeight="1">
-      <c r="A35" t="s" s="7">
+      <c r="G34" s="12">
+        <v>0.675675675675676</v>
+      </c>
+      <c r="H34" s="8">
+        <f>(LARGE(D34:G34,1)+LARGE(D34:G34,2)+LARGE(D34:G34,3))/3</f>
+        <v>0.617982328066362</v>
+      </c>
+    </row>
+    <row r="35" ht="23" customHeight="1">
+      <c r="A35" t="s" s="9">
         <v>76</v>
       </c>
-      <c r="B35" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s" s="7">
+      <c r="B35" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s" s="9">
         <v>77</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="10">
         <v>0.816326530612245</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="11">
         <v>0.588235294117647</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="11">
         <v>0.6</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" ht="22.35" customHeight="1">
-      <c r="A36" t="s" s="7">
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" ht="23" customHeight="1">
+      <c r="A36" t="s" s="9">
         <v>78</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" t="s" s="7">
+      <c r="B36" s="15"/>
+      <c r="C36" t="s" s="9">
         <v>79</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="10">
         <v>0</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="11">
         <v>0.323529411764706</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="11">
         <v>0.6</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" ht="22.35" customHeight="1">
-      <c r="A37" t="s" s="7">
+      <c r="G36" s="12"/>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" ht="23" customHeight="1">
+      <c r="A37" t="s" s="9">
         <v>80</v>
       </c>
-      <c r="B37" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s" s="7">
+      <c r="B37" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s" s="9">
         <v>81</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="10">
         <v>0.877551020408163</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="11">
         <v>0.794117647058824</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="11">
         <v>0.666666666666667</v>
       </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" ht="22.35" customHeight="1">
-      <c r="A38" t="s" s="7">
+      <c r="G37" s="12"/>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" ht="23" customHeight="1">
+      <c r="A38" t="s" s="9">
         <v>82</v>
       </c>
-      <c r="B38" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s" s="7">
+      <c r="B38" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s" s="9">
         <v>83</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="10">
         <v>0.877551020408163</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="11">
         <v>0.735294117647059</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="11">
         <v>0.7333333333333329</v>
       </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" ht="22.35" customHeight="1">
-      <c r="A39" t="s" s="7">
+      <c r="G38" s="12"/>
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" ht="23" customHeight="1">
+      <c r="A39" t="s" s="9">
         <v>84</v>
       </c>
-      <c r="B39" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s" s="7">
+      <c r="B39" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s" s="9">
         <v>85</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="10">
         <v>0.877551020408163</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="11">
         <v>0.852941176470588</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="11">
         <v>0.666666666666667</v>
       </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" ht="22.35" customHeight="1">
-      <c r="A40" t="s" s="7">
+      <c r="G39" s="12"/>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" ht="23" customHeight="1">
+      <c r="A40" t="s" s="9">
         <v>86</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" t="s" s="7">
+      <c r="B40" s="15"/>
+      <c r="C40" t="s" s="9">
         <v>87</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="10">
         <v>0</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="11">
         <v>0</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="11">
         <v>0.6</v>
       </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" ht="22.35" customHeight="1">
-      <c r="A41" t="s" s="7">
+      <c r="G40" s="12"/>
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41" ht="23" customHeight="1">
+      <c r="A41" t="s" s="9">
         <v>88</v>
       </c>
-      <c r="B41" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s" s="7">
+      <c r="B41" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s" s="9">
         <v>89</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="10">
         <v>0.877551020408163</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="11">
         <v>0</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="11">
         <v>0</v>
       </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" ht="22.35" customHeight="1">
-      <c r="A42" t="s" s="7">
+      <c r="G41" s="12"/>
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" ht="23" customHeight="1">
+      <c r="A42" t="s" s="9">
         <v>90</v>
       </c>
-      <c r="B42" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s" s="7">
+      <c r="B42" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s" s="9">
         <v>91</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="10">
         <v>0.571428571428571</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="11">
         <v>0.411764705882353</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="11">
         <v>0</v>
       </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" ht="22.35" customHeight="1">
-      <c r="A43" t="s" s="7">
+      <c r="G42" s="12"/>
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" ht="23" customHeight="1">
+      <c r="A43" t="s" s="9">
         <v>92</v>
       </c>
-      <c r="B43" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C43" t="s" s="7">
+      <c r="B43" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s" s="9">
         <v>93</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="10">
         <v>0.918367346938776</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="11">
         <v>0.735294117647059</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="11">
         <v>0.511111111111111</v>
       </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" ht="22.35" customHeight="1">
-      <c r="A44" t="s" s="7">
+      <c r="G43" s="12"/>
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" ht="23" customHeight="1">
+      <c r="A44" t="s" s="9">
         <v>94</v>
       </c>
-      <c r="B44" t="s" s="7">
+      <c r="B44" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="C44" t="s" s="7">
+      <c r="C44" t="s" s="9">
         <v>95</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="10">
         <v>0.673469387755102</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="11">
         <v>0.5588235294117651</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="11">
         <v>0.711111111111111</v>
       </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" ht="22.35" customHeight="1">
-      <c r="A45" t="s" s="7">
+      <c r="G44" s="12">
+        <v>0.8378378378378381</v>
+      </c>
+      <c r="H44" s="8">
+        <f>(LARGE(D44:G44,1)+LARGE(D44:G44,2)+LARGE(D44:G44,3))/3</f>
+        <v>0.740806112234684</v>
+      </c>
+    </row>
+    <row r="45" ht="23" customHeight="1">
+      <c r="A45" t="s" s="9">
         <v>96</v>
       </c>
-      <c r="B45" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C45" t="s" s="7">
+      <c r="B45" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s" s="9">
         <v>97</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="10">
         <v>0.877551020408163</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="11">
         <v>0.882352941176471</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="11">
         <v>0.377777777777778</v>
       </c>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" ht="22.35" customHeight="1">
-      <c r="A46" t="s" s="7">
+      <c r="G45" s="12"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" ht="23" customHeight="1">
+      <c r="A46" t="s" s="9">
         <v>96</v>
       </c>
-      <c r="B46" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C46" t="s" s="7">
+      <c r="B46" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s" s="9">
         <v>98</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="10">
         <v>0.612244897959184</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="11">
         <v>0</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="11">
         <v>0</v>
       </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" ht="22.35" customHeight="1">
-      <c r="A47" t="s" s="7">
+      <c r="G46" s="12"/>
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" ht="23" customHeight="1">
+      <c r="A47" t="s" s="9">
         <v>99</v>
       </c>
-      <c r="B47" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C47" t="s" s="7">
+      <c r="B47" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s" s="9">
         <v>100</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="10">
         <v>1</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="11">
         <v>0.794117647058824</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="11">
         <v>0.5777777777777779</v>
       </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" ht="22.35" customHeight="1">
-      <c r="A48" t="s" s="7">
+      <c r="G47" s="12"/>
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" ht="23" customHeight="1">
+      <c r="A48" t="s" s="9">
         <v>101</v>
       </c>
-      <c r="B48" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C48" t="s" s="7">
+      <c r="B48" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s" s="9">
         <v>102</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="10">
         <v>0.877551020408163</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="11">
         <v>0.735294117647059</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="11">
         <v>0.533333333333333</v>
       </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" ht="22.35" customHeight="1">
-      <c r="A49" t="s" s="7">
+      <c r="G48" s="12"/>
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" ht="23" customHeight="1">
+      <c r="A49" t="s" s="9">
         <v>103</v>
       </c>
-      <c r="B49" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C49" t="s" s="7">
+      <c r="B49" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s" s="9">
         <v>104</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="10">
         <v>0.755102040816327</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="11">
         <v>0.617647058823529</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="11">
         <v>0.7333333333333329</v>
       </c>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" ht="22.35" customHeight="1">
-      <c r="A50" t="s" s="7">
+      <c r="G49" s="12"/>
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50" ht="23" customHeight="1">
+      <c r="A50" t="s" s="9">
         <v>105</v>
       </c>
-      <c r="B50" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s" s="7">
+      <c r="B50" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s" s="9">
         <v>106</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="10">
         <v>0.877551020408163</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="11">
         <v>0.823529411764706</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="11">
         <v>0.822222222222222</v>
       </c>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-    </row>
-    <row r="51" ht="22.35" customHeight="1">
-      <c r="A51" t="s" s="7">
+      <c r="G50" s="12"/>
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51" ht="23" customHeight="1">
+      <c r="A51" t="s" s="9">
         <v>107</v>
       </c>
-      <c r="B51" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C51" t="s" s="7">
+      <c r="B51" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s" s="9">
         <v>108</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="10">
         <v>0.938775510204082</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="11">
         <v>0.205882352941176</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="11">
         <v>0.6</v>
       </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" ht="22.35" customHeight="1">
-      <c r="A52" t="s" s="7">
+      <c r="G51" s="12"/>
+      <c r="H51" s="14"/>
+    </row>
+    <row r="52" ht="23" customHeight="1">
+      <c r="A52" t="s" s="9">
         <v>109</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" t="s" s="7">
+      <c r="B52" s="15"/>
+      <c r="C52" t="s" s="9">
         <v>110</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="10">
         <v>0</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="11">
         <v>0</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="11">
         <v>0.4</v>
       </c>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" ht="22.35" customHeight="1">
-      <c r="A53" t="s" s="7">
+      <c r="G52" s="12"/>
+      <c r="H52" s="14"/>
+    </row>
+    <row r="53" ht="23" customHeight="1">
+      <c r="A53" t="s" s="9">
         <v>111</v>
       </c>
-      <c r="B53" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C53" t="s" s="7">
+      <c r="B53" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s" s="9">
         <v>112</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="10">
         <v>0.755102040816327</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="11">
         <v>0.823529411764706</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="11">
         <v>0.7333333333333329</v>
       </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" ht="22.35" customHeight="1">
-      <c r="A54" t="s" s="7">
+      <c r="G53" s="12"/>
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" ht="23" customHeight="1">
+      <c r="A54" t="s" s="9">
         <v>113</v>
       </c>
-      <c r="B54" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C54" t="s" s="7">
+      <c r="B54" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s" s="9">
         <v>114</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="10">
         <v>0.653061224489796</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="11">
         <v>0.794117647058824</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="11">
         <v>0.377777777777778</v>
       </c>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" ht="22.35" customHeight="1">
-      <c r="A55" t="s" s="7">
+      <c r="G54" s="12"/>
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55" ht="23" customHeight="1">
+      <c r="A55" t="s" s="9">
         <v>115</v>
       </c>
-      <c r="B55" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s" s="7">
+      <c r="B55" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s" s="9">
         <v>116</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="10">
         <v>0.877551020408163</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="11">
         <v>0.882352941176471</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="11">
         <v>0.377777777777778</v>
       </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" ht="22.35" customHeight="1">
-      <c r="A56" t="s" s="7">
+      <c r="G55" s="12"/>
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56" ht="23" customHeight="1">
+      <c r="A56" t="s" s="9">
         <v>117</v>
       </c>
-      <c r="B56" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C56" t="s" s="7">
+      <c r="B56" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s" s="9">
         <v>118</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="10">
         <v>0.510204081632653</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="11">
         <v>0.823529411764706</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="11">
         <v>0.688888888888889</v>
       </c>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-    </row>
-    <row r="57" ht="22.35" customHeight="1">
-      <c r="A57" t="s" s="7">
+      <c r="G56" s="12"/>
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" ht="23" customHeight="1">
+      <c r="A57" t="s" s="9">
         <v>119</v>
       </c>
-      <c r="B57" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C57" t="s" s="7">
+      <c r="B57" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s" s="9">
         <v>120</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="10">
         <v>0.877551020408163</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="11">
         <v>0.588235294117647</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="11">
         <v>0.688888888888889</v>
       </c>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" ht="22.35" customHeight="1">
-      <c r="A58" t="s" s="7">
+      <c r="G57" s="12"/>
+      <c r="H57" s="14"/>
+    </row>
+    <row r="58" ht="23" customHeight="1">
+      <c r="A58" t="s" s="9">
         <v>121</v>
       </c>
-      <c r="B58" t="s" s="7">
+      <c r="B58" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="C58" t="s" s="7">
+      <c r="C58" t="s" s="9">
         <v>122</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="10">
         <v>0.877551020408163</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="11">
         <v>0.882352941176471</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="11">
         <v>0.8</v>
       </c>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-    </row>
-    <row r="59" ht="22.35" customHeight="1">
-      <c r="A59" t="s" s="7">
+      <c r="G58" s="12"/>
+      <c r="H58" s="14"/>
+    </row>
+    <row r="59" ht="23" customHeight="1">
+      <c r="A59" t="s" s="9">
         <v>123</v>
       </c>
-      <c r="B59" t="s" s="7">
+      <c r="B59" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="C59" t="s" s="7">
+      <c r="C59" t="s" s="9">
         <v>124</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="10">
         <v>0.877551020408163</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="11">
         <v>0.970588235294118</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="11">
         <v>0.8</v>
       </c>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="60" ht="22.35" customHeight="1">
-      <c r="A60" t="s" s="7">
+      <c r="G59" s="12"/>
+      <c r="H59" s="14"/>
+    </row>
+    <row r="60" ht="23" customHeight="1">
+      <c r="A60" t="s" s="9">
         <v>125</v>
       </c>
-      <c r="B60" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C60" t="s" s="7">
+      <c r="B60" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s" s="9">
         <v>126</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="10">
         <v>1</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="11">
         <v>0.529411764705882</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="11">
         <v>0.8</v>
       </c>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-    </row>
-    <row r="61" ht="22.35" customHeight="1">
-      <c r="A61" t="s" s="7">
+      <c r="G60" s="12"/>
+      <c r="H60" s="14"/>
+    </row>
+    <row r="61" ht="23" customHeight="1">
+      <c r="A61" t="s" s="9">
         <v>127</v>
       </c>
-      <c r="B61" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C61" t="s" s="7">
+      <c r="B61" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s" s="9">
         <v>128</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="10">
         <v>0.0612244897959184</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="11">
         <v>0.705882352941176</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="11">
         <v>0.4</v>
       </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" ht="22.35" customHeight="1">
-      <c r="A62" t="s" s="7">
+      <c r="G61" s="12">
+        <v>0.540540540540541</v>
+      </c>
+      <c r="H61" s="8">
+        <f>(LARGE(D61:G61,1)+LARGE(D61:G61,2)+LARGE(D61:G61,3))/3</f>
+        <v>0.548807631160572</v>
+      </c>
+    </row>
+    <row r="62" ht="23" customHeight="1">
+      <c r="A62" t="s" s="9">
         <v>129</v>
       </c>
-      <c r="B62" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C62" t="s" s="7">
+      <c r="B62" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s" s="9">
         <v>130</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="10">
         <v>1</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="11">
         <v>0.882352941176471</v>
       </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" ht="22.35" customHeight="1">
-      <c r="A63" t="s" s="7">
+      <c r="F62" s="11"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="13"/>
+    </row>
+    <row r="63" ht="23" customHeight="1">
+      <c r="A63" t="s" s="9">
         <v>131</v>
       </c>
-      <c r="B63" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C63" t="s" s="7">
+      <c r="B63" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s" s="9">
         <v>132</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="10">
         <v>0.877551020408163</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="11">
         <v>0.235294117647059</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="11">
         <v>0.755555555555556</v>
       </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" ht="22.35" customHeight="1">
-      <c r="A64" t="s" s="7">
+      <c r="G63" s="12"/>
+      <c r="H63" s="14"/>
+    </row>
+    <row r="64" ht="23" customHeight="1">
+      <c r="A64" t="s" s="9">
         <v>133</v>
       </c>
-      <c r="B64" t="s" s="7">
+      <c r="B64" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="C64" t="s" s="7">
+      <c r="C64" t="s" s="9">
         <v>134</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="10">
         <v>0.551020408163265</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="11">
         <v>0</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="11">
         <v>0</v>
       </c>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" ht="22.35" customHeight="1">
-      <c r="A65" t="s" s="7">
+      <c r="G64" s="12"/>
+      <c r="H64" s="14"/>
+    </row>
+    <row r="65" ht="23" customHeight="1">
+      <c r="A65" t="s" s="9">
         <v>135</v>
       </c>
-      <c r="B65" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C65" t="s" s="7">
+      <c r="B65" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s" s="9">
         <v>136</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="10">
         <v>0.755102040816327</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="11">
         <v>0</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="11">
         <v>0.622222222222222</v>
       </c>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-    </row>
-    <row r="66" ht="22.35" customHeight="1">
-      <c r="A66" t="s" s="7">
+      <c r="G65" s="12"/>
+      <c r="H65" s="14"/>
+    </row>
+    <row r="66" ht="23" customHeight="1">
+      <c r="A66" t="s" s="9">
         <v>137</v>
       </c>
-      <c r="B66" t="s" s="7">
+      <c r="B66" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="C66" t="s" s="7">
+      <c r="C66" t="s" s="9">
         <v>138</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="10">
         <v>0</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="11">
         <v>0.882352941176471</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="11">
         <v>0.5777777777777779</v>
       </c>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
+      <c r="G66" s="12">
+        <v>0.486486486486486</v>
+      </c>
+      <c r="H66" s="8">
+        <f>(LARGE(D66:G66,1)+LARGE(D66:G66,2)+LARGE(D66:G66,3))/3</f>
+        <v>0.648872401813578</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/cw21062021.xlsx
+++ b/cw21062021.xlsx
@@ -1970,8 +1970,13 @@
       <c r="F9" s="11">
         <v>0.644444444444444</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="12">
+        <v>0.27027027027027</v>
+      </c>
+      <c r="H9" s="8">
+        <f>(LARGE(D9:G9,1)+LARGE(D9:G9,2)+LARGE(D9:G9,3))/3</f>
+        <v>0.538744386643546</v>
+      </c>
     </row>
     <row r="10" ht="23" customHeight="1">
       <c r="A10" t="s" s="9">
@@ -1995,7 +2000,7 @@
       <c r="G10" s="12">
         <v>0.621621621621622</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <f>(LARGE(D10:G10,1)+LARGE(D10:G10,2)+LARGE(D10:G10,3))/3</f>
         <v>0.678995922693402</v>
       </c>
@@ -3070,8 +3075,13 @@
       <c r="F58" s="11">
         <v>0.8</v>
       </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="14"/>
+      <c r="G58" s="12">
+        <v>0.864864864864865</v>
+      </c>
+      <c r="H58" s="8">
+        <f>(LARGE(D58:G58,1)+LARGE(D58:G58,2)+LARGE(D58:G58,3))/3</f>
+        <v>0.874922942149833</v>
+      </c>
     </row>
     <row r="59" ht="23" customHeight="1">
       <c r="A59" t="s" s="9">
@@ -3093,7 +3103,7 @@
         <v>0.8</v>
       </c>
       <c r="G59" s="12"/>
-      <c r="H59" s="14"/>
+      <c r="H59" s="13"/>
     </row>
     <row r="60" ht="23" customHeight="1">
       <c r="A60" t="s" s="9">
@@ -3183,8 +3193,13 @@
       <c r="F63" s="11">
         <v>0.755555555555556</v>
       </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="14"/>
+      <c r="G63" s="12">
+        <v>0.513513513513514</v>
+      </c>
+      <c r="H63" s="8">
+        <f>(LARGE(D63:G63,1)+LARGE(D63:G63,2)+LARGE(D63:G63,3))/3</f>
+        <v>0.7155400298257441</v>
+      </c>
     </row>
     <row r="64" ht="23" customHeight="1">
       <c r="A64" t="s" s="9">
@@ -3206,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="12"/>
-      <c r="H64" s="14"/>
+      <c r="H64" s="13"/>
     </row>
     <row r="65" ht="23" customHeight="1">
       <c r="A65" t="s" s="9">

--- a/cw21062021.xlsx
+++ b/cw21062021.xlsx
@@ -2943,8 +2943,13 @@
       <c r="F52" s="11">
         <v>0.4</v>
       </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="14"/>
+      <c r="G52" s="12">
+        <v>0.162162162162162</v>
+      </c>
+      <c r="H52" s="14">
+        <f>(LARGE(D52:G52,1)+LARGE(D52:G52,2)+LARGE(D52:G52,3))/3</f>
+        <v>0.187387387387387</v>
+      </c>
     </row>
     <row r="53" ht="23" customHeight="1">
       <c r="A53" t="s" s="9">
@@ -2965,8 +2970,13 @@
       <c r="F53" s="11">
         <v>0.7333333333333329</v>
       </c>
-      <c r="G53" s="12"/>
-      <c r="H53" s="14"/>
+      <c r="G53" s="12">
+        <v>0.783783783783784</v>
+      </c>
+      <c r="H53" s="8">
+        <f>(LARGE(D53:G53,1)+LARGE(D53:G53,2)+LARGE(D53:G53,3))/3</f>
+        <v>0.787471745454939</v>
+      </c>
     </row>
     <row r="54" ht="23" customHeight="1">
       <c r="A54" t="s" s="9">
@@ -2988,7 +2998,7 @@
         <v>0.377777777777778</v>
       </c>
       <c r="G54" s="12"/>
-      <c r="H54" s="14"/>
+      <c r="H54" s="13"/>
     </row>
     <row r="55" ht="23" customHeight="1">
       <c r="A55" t="s" s="9">

--- a/cw21062021.xlsx
+++ b/cw21062021.xlsx
@@ -475,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -554,7 +554,7 @@
         <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,25 +596,10 @@
         <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
         <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,7 +609,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -664,13 +649,10 @@
     <xf numFmtId="2" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1838,8 +1820,13 @@
       <c r="F3" s="11">
         <v>0</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <f>(LARGE(D3:G3,1)+LARGE(D3:G3,2)+LARGE(D3:G3,3))/3</f>
+        <v>0.17687074829932</v>
+      </c>
     </row>
     <row r="4" ht="23" customHeight="1">
       <c r="A4" t="s" s="9">
@@ -1860,8 +1847,13 @@
       <c r="F4" s="11">
         <v>0</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="14"/>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <f>(LARGE(D4:G4,1)+LARGE(D4:G4,2)+LARGE(D4:G4,3))/3</f>
+        <v>0.0816326530612243</v>
+      </c>
     </row>
     <row r="5" ht="23" customHeight="1">
       <c r="A5" t="s" s="9">
@@ -1882,8 +1874,13 @@
       <c r="F5" s="11">
         <v>0.755555555555556</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="14"/>
+      <c r="G5" s="12">
+        <v>0.567567567567568</v>
+      </c>
+      <c r="H5" s="8">
+        <f>(LARGE(D5:G5,1)+LARGE(D5:G5,2)+LARGE(D5:G5,3))/3</f>
+        <v>0.879302832244009</v>
+      </c>
     </row>
     <row r="6" ht="23" customHeight="1">
       <c r="A6" t="s" s="9">
@@ -1904,8 +1901,13 @@
       <c r="F6" s="11">
         <v>0.555555555555556</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="12">
+        <v>0.459459459459459</v>
+      </c>
+      <c r="H6" s="8">
+        <f>(LARGE(D6:G6,1)+LARGE(D6:G6,2)+LARGE(D6:G6,3))/3</f>
+        <v>0.762015917478102</v>
+      </c>
     </row>
     <row r="7" ht="23" customHeight="1">
       <c r="A7" t="s" s="9">
@@ -1926,8 +1928,13 @@
       <c r="F7" s="11">
         <v>0</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="14"/>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <f>(LARGE(D7:G7,1)+LARGE(D7:G7,2)+LARGE(D7:G7,3))/3</f>
+        <v>0.224489795918367</v>
+      </c>
     </row>
     <row r="8" ht="23" customHeight="1">
       <c r="A8" t="s" s="9">
@@ -1948,8 +1955,13 @@
       <c r="F8" s="11">
         <v>0.4</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="14"/>
+      <c r="G8" s="12">
+        <v>0.621621621621622</v>
+      </c>
+      <c r="H8" s="8">
+        <f>(LARGE(D8:G8,1)+LARGE(D8:G8,2)+LARGE(D8:G8,3))/3</f>
+        <v>0.734818251624975</v>
+      </c>
     </row>
     <row r="9" ht="23" customHeight="1">
       <c r="A9" t="s" s="9">
@@ -2000,7 +2012,7 @@
       <c r="G10" s="12">
         <v>0.621621621621622</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="8">
         <f>(LARGE(D10:G10,1)+LARGE(D10:G10,2)+LARGE(D10:G10,3))/3</f>
         <v>0.678995922693402</v>
       </c>
@@ -2024,8 +2036,13 @@
       <c r="F11" s="11">
         <v>0.377777777777778</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="14"/>
+      <c r="G11" s="12">
+        <v>0.513513513513514</v>
+      </c>
+      <c r="H11" s="8">
+        <f>(LARGE(D11:G11,1)+LARGE(D11:G11,2)+LARGE(D11:G11,3))/3</f>
+        <v>0.6809750927397989</v>
+      </c>
     </row>
     <row r="12" ht="23" customHeight="1">
       <c r="A12" t="s" s="9">
@@ -2046,8 +2063,13 @@
       <c r="F12" s="11">
         <v>0.8</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="14"/>
+      <c r="G12" s="12">
+        <v>0.675675675675676</v>
+      </c>
+      <c r="H12" s="8">
+        <f>(LARGE(D12:G12,1)+LARGE(D12:G12,2)+LARGE(D12:G12,3))/3</f>
+        <v>0.830692276910764</v>
+      </c>
     </row>
     <row r="13" ht="23" customHeight="1">
       <c r="A13" t="s" s="9">
@@ -2068,8 +2090,13 @@
       <c r="F13" s="11">
         <v>0.644444444444444</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="14"/>
+      <c r="G13" s="12">
+        <v>0.783783783783784</v>
+      </c>
+      <c r="H13" s="8">
+        <f>(LARGE(D13:G13,1)+LARGE(D13:G13,2)+LARGE(D13:G13,3))/3</f>
+        <v>0.701566272154507</v>
+      </c>
     </row>
     <row r="14" ht="23" customHeight="1">
       <c r="A14" t="s" s="9">
@@ -2090,8 +2117,13 @@
       <c r="F14" s="11">
         <v>0.533333333333333</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="14"/>
+      <c r="G14" s="12">
+        <v>0.702702702702703</v>
+      </c>
+      <c r="H14" s="8">
+        <f>(LARGE(D14:G14,1)+LARGE(D14:G14,2)+LARGE(D14:G14,3))/3</f>
+        <v>0.746239036155003</v>
+      </c>
     </row>
     <row r="15" ht="23" customHeight="1">
       <c r="A15" t="s" s="9">
@@ -2112,8 +2144,13 @@
       <c r="F15" s="11">
         <v>0.622222222222222</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="14"/>
+      <c r="G15" s="12">
+        <v>0.432432432432432</v>
+      </c>
+      <c r="H15" s="8">
+        <f>(LARGE(D15:G15,1)+LARGE(D15:G15,2)+LARGE(D15:G15,3))/3</f>
+        <v>0.646182917611489</v>
+      </c>
     </row>
     <row r="16" ht="23" customHeight="1">
       <c r="A16" t="s" s="9">
@@ -2134,8 +2171,13 @@
       <c r="F16" s="11">
         <v>0</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="14"/>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <f>(LARGE(D16:G16,1)+LARGE(D16:G16,2)+LARGE(D16:G16,3))/3</f>
+        <v>0.251700680272109</v>
+      </c>
     </row>
     <row r="17" ht="23" customHeight="1">
       <c r="A17" t="s" s="9">
@@ -2156,8 +2198,13 @@
       <c r="F17" s="11">
         <v>0.644444444444444</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="14"/>
+      <c r="G17" s="12">
+        <v>0.72972972972973</v>
+      </c>
+      <c r="H17" s="8">
+        <f>(LARGE(D17:G17,1)+LARGE(D17:G17,2)+LARGE(D17:G17,3))/3</f>
+        <v>0.709758738330167</v>
+      </c>
     </row>
     <row r="18" ht="23" customHeight="1">
       <c r="A18" t="s" s="9">
@@ -2176,8 +2223,13 @@
         <v>0.823529411764706</v>
       </c>
       <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="14"/>
+      <c r="G18" s="12">
+        <v>0.567567567567568</v>
+      </c>
+      <c r="H18" s="8">
+        <f>(LARGE(D18:G18,1)+LARGE(D18:G18,2)+LARGE(D18:G18,3))/3</f>
+        <v>0.756215999913479</v>
+      </c>
     </row>
     <row r="19" ht="23" customHeight="1">
       <c r="A19" t="s" s="9">
@@ -2198,8 +2250,13 @@
       <c r="F19" s="11">
         <v>0.6</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="14"/>
+      <c r="G19" s="12">
+        <v>0.621621621621622</v>
+      </c>
+      <c r="H19" s="8">
+        <f>(LARGE(D19:G19,1)+LARGE(D19:G19,2)+LARGE(D19:G19,3))/3</f>
+        <v>0.699724214009928</v>
+      </c>
     </row>
     <row r="20" ht="23" customHeight="1">
       <c r="A20" t="s" s="9">
@@ -2247,8 +2304,13 @@
       <c r="F21" s="11">
         <v>0.466666666666667</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
+      <c r="G21" s="12">
+        <v>0.756756756756757</v>
+      </c>
+      <c r="H21" s="8">
+        <f>(LARGE(D21:G21,1)+LARGE(D21:G21,2)+LARGE(D21:G21,3))/3</f>
+        <v>0.731043768858895</v>
+      </c>
     </row>
     <row r="22" ht="23" customHeight="1">
       <c r="A22" t="s" s="9">
@@ -2269,8 +2331,13 @@
       <c r="F22" s="11">
         <v>0.666666666666667</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="14"/>
+      <c r="G22" s="12">
+        <v>0.486486486486486</v>
+      </c>
+      <c r="H22" s="8">
+        <f>(LARGE(D22:G22,1)+LARGE(D22:G22,2)+LARGE(D22:G22,3))/3</f>
+        <v>0.676901391187105</v>
+      </c>
     </row>
     <row r="23" ht="23" customHeight="1">
       <c r="A23" t="s" s="9">
@@ -2291,8 +2358,13 @@
       <c r="F23" s="11">
         <v>0.422222222222222</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="14"/>
+      <c r="G23" s="12">
+        <v>0.432432432432432</v>
+      </c>
+      <c r="H23" s="8">
+        <f>(LARGE(D23:G23,1)+LARGE(D23:G23,2)+LARGE(D23:G23,3))/3</f>
+        <v>0.593523896044904</v>
+      </c>
     </row>
     <row r="24" ht="23" customHeight="1">
       <c r="A24" t="s" s="9">
@@ -2316,7 +2388,7 @@
       <c r="G24" s="12">
         <v>0.864864864864865</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="8">
         <f>(LARGE(D24:G24,1)+LARGE(D24:G24,2)+LARGE(D24:G24,3))/3</f>
         <v>0.791889728864519</v>
       </c>
@@ -2367,8 +2439,13 @@
       <c r="F26" s="11">
         <v>0</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
+        <f>(LARGE(D26:G26,1)+LARGE(D26:G26,2)+LARGE(D26:G26,3))/3</f>
+        <v>0.19047619047619</v>
+      </c>
     </row>
     <row r="27" ht="23" customHeight="1">
       <c r="A27" t="s" s="9">
@@ -2389,8 +2466,13 @@
       <c r="F27" s="11">
         <v>0.777777777777778</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="14"/>
+      <c r="G27" s="12">
+        <v>0.72972972972973</v>
+      </c>
+      <c r="H27" s="8">
+        <f>(LARGE(D27:G27,1)+LARGE(D27:G27,2)+LARGE(D27:G27,3))/3</f>
+        <v>0.795273665021564</v>
+      </c>
     </row>
     <row r="28" ht="23" customHeight="1">
       <c r="A28" t="s" s="9">
@@ -2411,8 +2493,13 @@
       <c r="F28" s="11">
         <v>0.777777777777778</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="14"/>
+      <c r="G28" s="12">
+        <v>0.432432432432432</v>
+      </c>
+      <c r="H28" s="8">
+        <f>(LARGE(D28:G28,1)+LARGE(D28:G28,2)+LARGE(D28:G28,3))/3</f>
+        <v>0.717128893599482</v>
+      </c>
     </row>
     <row r="29" ht="23" customHeight="1">
       <c r="A29" t="s" s="9">
@@ -2433,8 +2520,13 @@
       <c r="F29" s="11">
         <v>0.355555555555556</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="14"/>
+      <c r="G29" s="12">
+        <v>0.486486486486486</v>
+      </c>
+      <c r="H29" s="8">
+        <f>(LARGE(D29:G29,1)+LARGE(D29:G29,2)+LARGE(D29:G29,3))/3</f>
+        <v>0.703578728788813</v>
+      </c>
     </row>
     <row r="30" ht="23" customHeight="1">
       <c r="A30" t="s" s="9">
@@ -2455,8 +2547,13 @@
       <c r="F30" s="11">
         <v>0.555555555555556</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="14"/>
+      <c r="G30" s="12">
+        <v>0.783783783783784</v>
+      </c>
+      <c r="H30" s="8">
+        <f>(LARGE(D30:G30,1)+LARGE(D30:G30,2)+LARGE(D30:G30,3))/3</f>
+        <v>0.664133521276379</v>
+      </c>
     </row>
     <row r="31" ht="23" customHeight="1">
       <c r="A31" t="s" s="9">
@@ -2477,8 +2574,13 @@
       <c r="F31" s="11">
         <v>0.777777777777778</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="14"/>
+      <c r="G31" s="12">
+        <v>0.810810810810811</v>
+      </c>
+      <c r="H31" s="8">
+        <f>(LARGE(D31:G31,1)+LARGE(D31:G31,2)+LARGE(D31:G31,3))/3</f>
+        <v>0.784431490313843</v>
+      </c>
     </row>
     <row r="32" ht="23" customHeight="1">
       <c r="A32" t="s" s="9">
@@ -2499,8 +2601,13 @@
       <c r="F32" s="11">
         <v>0.488888888888889</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="14"/>
+      <c r="G32" s="12">
+        <v>0.324324324324324</v>
+      </c>
+      <c r="H32" s="8">
+        <f>(LARGE(D32:G32,1)+LARGE(D32:G32,2)+LARGE(D32:G32,3))/3</f>
+        <v>0.378914208325973</v>
+      </c>
     </row>
     <row r="33" ht="23" customHeight="1">
       <c r="A33" t="s" s="9">
@@ -2521,8 +2628,13 @@
       <c r="F33" s="11">
         <v>0.377777777777778</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="14"/>
+      <c r="G33" s="12">
+        <v>0.810810810810811</v>
+      </c>
+      <c r="H33" s="8">
+        <f>(LARGE(D33:G33,1)+LARGE(D33:G33,2)+LARGE(D33:G33,3))/3</f>
+        <v>0.577593199441939</v>
+      </c>
     </row>
     <row r="34" ht="23" customHeight="1">
       <c r="A34" t="s" s="9">
@@ -2570,14 +2682,19 @@
       <c r="F35" s="11">
         <v>0.6</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
+      <c r="G35" s="12">
+        <v>0.27027027027027</v>
+      </c>
+      <c r="H35" s="8">
+        <f>(LARGE(D35:G35,1)+LARGE(D35:G35,2)+LARGE(D35:G35,3))/3</f>
+        <v>0.668187274909964</v>
+      </c>
     </row>
     <row r="36" ht="23" customHeight="1">
       <c r="A36" t="s" s="9">
         <v>78</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="13"/>
       <c r="C36" t="s" s="9">
         <v>79</v>
       </c>
@@ -2590,8 +2707,13 @@
       <c r="F36" s="11">
         <v>0.6</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="14"/>
+      <c r="G36" s="12">
+        <v>0.621621621621622</v>
+      </c>
+      <c r="H36" s="8">
+        <f>(LARGE(D36:G36,1)+LARGE(D36:G36,2)+LARGE(D36:G36,3))/3</f>
+        <v>0.515050344462109</v>
+      </c>
     </row>
     <row r="37" ht="23" customHeight="1">
       <c r="A37" t="s" s="9">
@@ -2612,8 +2734,13 @@
       <c r="F37" s="11">
         <v>0.666666666666667</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="14"/>
+      <c r="G37" s="12">
+        <v>0.351351351351351</v>
+      </c>
+      <c r="H37" s="8">
+        <f>(LARGE(D37:G37,1)+LARGE(D37:G37,2)+LARGE(D37:G37,3))/3</f>
+        <v>0.779445111377885</v>
+      </c>
     </row>
     <row r="38" ht="23" customHeight="1">
       <c r="A38" t="s" s="9">
@@ -2634,8 +2761,13 @@
       <c r="F38" s="11">
         <v>0.7333333333333329</v>
       </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="14"/>
+      <c r="G38" s="12">
+        <v>0.675675675675676</v>
+      </c>
+      <c r="H38" s="8">
+        <f>(LARGE(D38:G38,1)+LARGE(D38:G38,2)+LARGE(D38:G38,3))/3</f>
+        <v>0.7820594904628519</v>
+      </c>
     </row>
     <row r="39" ht="23" customHeight="1">
       <c r="A39" t="s" s="9">
@@ -2656,14 +2788,21 @@
       <c r="F39" s="11">
         <v>0.666666666666667</v>
       </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="14"/>
+      <c r="G39" s="12">
+        <v>0.540540540540541</v>
+      </c>
+      <c r="H39" s="8">
+        <f>(LARGE(D39:G39,1)+LARGE(D39:G39,2)+LARGE(D39:G39,3))/3</f>
+        <v>0.799052954515139</v>
+      </c>
     </row>
     <row r="40" ht="23" customHeight="1">
       <c r="A40" t="s" s="9">
         <v>86</v>
       </c>
-      <c r="B40" s="15"/>
+      <c r="B40" t="s" s="9">
+        <v>9</v>
+      </c>
       <c r="C40" t="s" s="9">
         <v>87</v>
       </c>
@@ -2676,8 +2815,13 @@
       <c r="F40" s="11">
         <v>0.6</v>
       </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="14"/>
+      <c r="G40" s="12">
+        <v>0.459459459459459</v>
+      </c>
+      <c r="H40" s="8">
+        <f>(LARGE(D40:G40,1)+LARGE(D40:G40,2)+LARGE(D40:G40,3))/3</f>
+        <v>0.353153153153153</v>
+      </c>
     </row>
     <row r="41" ht="23" customHeight="1">
       <c r="A41" t="s" s="9">
@@ -2698,8 +2842,13 @@
       <c r="F41" s="11">
         <v>0</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="14"/>
+      <c r="G41" s="12">
+        <v>0</v>
+      </c>
+      <c r="H41" s="8">
+        <f>(LARGE(D41:G41,1)+LARGE(D41:G41,2)+LARGE(D41:G41,3))/3</f>
+        <v>0.292517006802721</v>
+      </c>
     </row>
     <row r="42" ht="23" customHeight="1">
       <c r="A42" t="s" s="9">
@@ -2720,8 +2869,13 @@
       <c r="F42" s="11">
         <v>0</v>
       </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="14"/>
+      <c r="G42" s="12">
+        <v>0</v>
+      </c>
+      <c r="H42" s="8">
+        <f>(LARGE(D42:G42,1)+LARGE(D42:G42,2)+LARGE(D42:G42,3))/3</f>
+        <v>0.327731092436975</v>
+      </c>
     </row>
     <row r="43" ht="23" customHeight="1">
       <c r="A43" t="s" s="9">
@@ -2742,8 +2896,13 @@
       <c r="F43" s="11">
         <v>0.511111111111111</v>
       </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="14"/>
+      <c r="G43" s="12">
+        <v>0.567567567567568</v>
+      </c>
+      <c r="H43" s="8">
+        <f>(LARGE(D43:G43,1)+LARGE(D43:G43,2)+LARGE(D43:G43,3))/3</f>
+        <v>0.7404096773844679</v>
+      </c>
     </row>
     <row r="44" ht="23" customHeight="1">
       <c r="A44" t="s" s="9">
@@ -2791,8 +2950,13 @@
       <c r="F45" s="11">
         <v>0.377777777777778</v>
       </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="13"/>
+      <c r="G45" s="12">
+        <v>0.648648648648649</v>
+      </c>
+      <c r="H45" s="8">
+        <f>(LARGE(D45:G45,1)+LARGE(D45:G45,2)+LARGE(D45:G45,3))/3</f>
+        <v>0.802850870077761</v>
+      </c>
     </row>
     <row r="46" ht="23" customHeight="1">
       <c r="A46" t="s" s="9">
@@ -2813,8 +2977,13 @@
       <c r="F46" s="11">
         <v>0</v>
       </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="14"/>
+      <c r="G46" s="12">
+        <v>0</v>
+      </c>
+      <c r="H46" s="8">
+        <f>(LARGE(D46:G46,1)+LARGE(D46:G46,2)+LARGE(D46:G46,3))/3</f>
+        <v>0.204081632653061</v>
+      </c>
     </row>
     <row r="47" ht="23" customHeight="1">
       <c r="A47" t="s" s="9">
@@ -2835,8 +3004,13 @@
       <c r="F47" s="11">
         <v>0.5777777777777779</v>
       </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="14"/>
+      <c r="G47" s="12">
+        <v>0.459459459459459</v>
+      </c>
+      <c r="H47" s="8">
+        <f>(LARGE(D47:G47,1)+LARGE(D47:G47,2)+LARGE(D47:G47,3))/3</f>
+        <v>0.790631808278867</v>
+      </c>
     </row>
     <row r="48" ht="23" customHeight="1">
       <c r="A48" t="s" s="9">
@@ -2857,8 +3031,13 @@
       <c r="F48" s="11">
         <v>0.533333333333333</v>
       </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="14"/>
+      <c r="G48" s="12">
+        <v>0.756756756756757</v>
+      </c>
+      <c r="H48" s="8">
+        <f>(LARGE(D48:G48,1)+LARGE(D48:G48,2)+LARGE(D48:G48,3))/3</f>
+        <v>0.78986729827066</v>
+      </c>
     </row>
     <row r="49" ht="23" customHeight="1">
       <c r="A49" t="s" s="9">
@@ -2879,8 +3058,13 @@
       <c r="F49" s="11">
         <v>0.7333333333333329</v>
       </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="14"/>
+      <c r="G49" s="12">
+        <v>0.621621621621622</v>
+      </c>
+      <c r="H49" s="8">
+        <f>(LARGE(D49:G49,1)+LARGE(D49:G49,2)+LARGE(D49:G49,3))/3</f>
+        <v>0.703352331923761</v>
+      </c>
     </row>
     <row r="50" ht="23" customHeight="1">
       <c r="A50" t="s" s="9">
@@ -2901,8 +3085,13 @@
       <c r="F50" s="11">
         <v>0.822222222222222</v>
       </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="14"/>
+      <c r="G50" s="12">
+        <v>0.594594594594595</v>
+      </c>
+      <c r="H50" s="8">
+        <f>(LARGE(D50:G50,1)+LARGE(D50:G50,2)+LARGE(D50:G50,3))/3</f>
+        <v>0.841100884798364</v>
+      </c>
     </row>
     <row r="51" ht="23" customHeight="1">
       <c r="A51" t="s" s="9">
@@ -2923,14 +3112,19 @@
       <c r="F51" s="11">
         <v>0.6</v>
       </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="14"/>
+      <c r="G51" s="12">
+        <v>0.513513513513514</v>
+      </c>
+      <c r="H51" s="8">
+        <f>(LARGE(D51:G51,1)+LARGE(D51:G51,2)+LARGE(D51:G51,3))/3</f>
+        <v>0.684096341239199</v>
+      </c>
     </row>
     <row r="52" ht="23" customHeight="1">
       <c r="A52" t="s" s="9">
         <v>109</v>
       </c>
-      <c r="B52" s="15"/>
+      <c r="B52" s="13"/>
       <c r="C52" t="s" s="9">
         <v>110</v>
       </c>
@@ -2946,7 +3140,7 @@
       <c r="G52" s="12">
         <v>0.162162162162162</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52" s="8">
         <f>(LARGE(D52:G52,1)+LARGE(D52:G52,2)+LARGE(D52:G52,3))/3</f>
         <v>0.187387387387387</v>
       </c>
@@ -2997,8 +3191,13 @@
       <c r="F54" s="11">
         <v>0.377777777777778</v>
       </c>
-      <c r="G54" s="12"/>
-      <c r="H54" s="13"/>
+      <c r="G54" s="12">
+        <v>0.648648648648649</v>
+      </c>
+      <c r="H54" s="8">
+        <f>(LARGE(D54:G54,1)+LARGE(D54:G54,2)+LARGE(D54:G54,3))/3</f>
+        <v>0.69860917339909</v>
+      </c>
     </row>
     <row r="55" ht="23" customHeight="1">
       <c r="A55" t="s" s="9">
@@ -3019,8 +3218,13 @@
       <c r="F55" s="11">
         <v>0.377777777777778</v>
       </c>
-      <c r="G55" s="12"/>
-      <c r="H55" s="14"/>
+      <c r="G55" s="12">
+        <v>0.459459459459459</v>
+      </c>
+      <c r="H55" s="8">
+        <f>(LARGE(D55:G55,1)+LARGE(D55:G55,2)+LARGE(D55:G55,3))/3</f>
+        <v>0.739787807014698</v>
+      </c>
     </row>
     <row r="56" ht="23" customHeight="1">
       <c r="A56" t="s" s="9">
@@ -3041,8 +3245,13 @@
       <c r="F56" s="11">
         <v>0.688888888888889</v>
       </c>
-      <c r="G56" s="12"/>
-      <c r="H56" s="14"/>
+      <c r="G56" s="12">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="H56" s="8">
+        <f>(LARGE(D56:G56,1)+LARGE(D56:G56,2)+LARGE(D56:G56,3))/3</f>
+        <v>0.810445739857505</v>
+      </c>
     </row>
     <row r="57" ht="23" customHeight="1">
       <c r="A57" t="s" s="9">
@@ -3063,8 +3272,13 @@
       <c r="F57" s="11">
         <v>0.688888888888889</v>
       </c>
-      <c r="G57" s="12"/>
-      <c r="H57" s="14"/>
+      <c r="G57" s="12">
+        <v>0.783783783783784</v>
+      </c>
+      <c r="H57" s="8">
+        <f>(LARGE(D57:G57,1)+LARGE(D57:G57,2)+LARGE(D57:G57,3))/3</f>
+        <v>0.783407897693612</v>
+      </c>
     </row>
     <row r="58" ht="23" customHeight="1">
       <c r="A58" t="s" s="9">
@@ -3112,8 +3326,13 @@
       <c r="F59" s="11">
         <v>0.8</v>
       </c>
-      <c r="G59" s="12"/>
-      <c r="H59" s="13"/>
+      <c r="G59" s="12">
+        <v>0.756756756756757</v>
+      </c>
+      <c r="H59" s="8">
+        <f>(LARGE(D59:G59,1)+LARGE(D59:G59,2)+LARGE(D59:G59,3))/3</f>
+        <v>0.882713085234094</v>
+      </c>
     </row>
     <row r="60" ht="23" customHeight="1">
       <c r="A60" t="s" s="9">
@@ -3134,8 +3353,13 @@
       <c r="F60" s="11">
         <v>0.8</v>
       </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="14"/>
+      <c r="G60" s="12">
+        <v>0.540540540540541</v>
+      </c>
+      <c r="H60" s="8">
+        <f>(LARGE(D60:G60,1)+LARGE(D60:G60,2)+LARGE(D60:G60,3))/3</f>
+        <v>0.78018018018018</v>
+      </c>
     </row>
     <row r="61" ht="23" customHeight="1">
       <c r="A61" t="s" s="9">
@@ -3181,8 +3405,13 @@
         <v>0.882352941176471</v>
       </c>
       <c r="F62" s="11"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="13"/>
+      <c r="G62" s="12">
+        <v>0.8378378378378381</v>
+      </c>
+      <c r="H62" s="8">
+        <f>(LARGE(D62:G62,1)+LARGE(D62:G62,2)+LARGE(D62:G62,3))/3</f>
+        <v>0.9067302596714359</v>
+      </c>
     </row>
     <row r="63" ht="23" customHeight="1">
       <c r="A63" t="s" s="9">
@@ -3230,8 +3459,13 @@
       <c r="F64" s="11">
         <v>0</v>
       </c>
-      <c r="G64" s="12"/>
-      <c r="H64" s="13"/>
+      <c r="G64" s="12">
+        <v>0</v>
+      </c>
+      <c r="H64" s="8">
+        <f>(LARGE(D64:G64,1)+LARGE(D64:G64,2)+LARGE(D64:G64,3))/3</f>
+        <v>0.183673469387755</v>
+      </c>
     </row>
     <row r="65" ht="23" customHeight="1">
       <c r="A65" t="s" s="9">
@@ -3252,8 +3486,13 @@
       <c r="F65" s="11">
         <v>0.622222222222222</v>
       </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="14"/>
+      <c r="G65" s="12">
+        <v>0.567567567567568</v>
+      </c>
+      <c r="H65" s="8">
+        <f>(LARGE(D65:G65,1)+LARGE(D65:G65,2)+LARGE(D65:G65,3))/3</f>
+        <v>0.648297276868706</v>
+      </c>
     </row>
     <row r="66" ht="23" customHeight="1">
       <c r="A66" t="s" s="9">
@@ -3277,7 +3516,7 @@
       <c r="G66" s="12">
         <v>0.486486486486486</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H66" s="14">
         <f>(LARGE(D66:G66,1)+LARGE(D66:G66,2)+LARGE(D66:G66,3))/3</f>
         <v>0.648872401813578</v>
       </c>

--- a/cw21062021.xlsx
+++ b/cw21062021.xlsx
@@ -2222,13 +2222,15 @@
       <c r="E18" s="11">
         <v>0.823529411764706</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="11">
+        <v>0.711111111111111</v>
+      </c>
       <c r="G18" s="12">
         <v>0.567567567567568</v>
       </c>
       <c r="H18" s="8">
         <f>(LARGE(D18:G18,1)+LARGE(D18:G18,2)+LARGE(D18:G18,3))/3</f>
-        <v>0.756215999913479</v>
+        <v>0.804063847761327</v>
       </c>
     </row>
     <row r="19" ht="23" customHeight="1">
